--- a/data/common/excel/public_category_sku.xlsx
+++ b/data/common/excel/public_category_sku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Djamel\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F28320-5BBF-40DE-B1F8-4A306FD7882C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA3EF33-B792-41AE-9BF7-53DD1096094A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98414BF8-B91D-4538-8B60-2AD3F6A6ADCC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9818" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9818" uniqueCount="160">
   <si>
     <t>PROYECTOR SOLAR LED</t>
   </si>
@@ -461,6 +461,51 @@
   </si>
   <si>
     <t>LED SOLAR Y FOTOVOLTAICA</t>
+  </si>
+  <si>
+    <t>PANTALLAS LED</t>
+  </si>
+  <si>
+    <t>LAMPARAS LED DE TECHO</t>
+  </si>
+  <si>
+    <t>LAMPARAS LED DE PARED</t>
+  </si>
+  <si>
+    <t>LUCES DE EMERGENCIA LED</t>
+  </si>
+  <si>
+    <t>PLAFONES LED</t>
+  </si>
+  <si>
+    <t>FOCOS DE CARRIL LED MAGNÉTICO</t>
+  </si>
+  <si>
+    <t>PROYECTORES SOLAR LED</t>
+  </si>
+  <si>
+    <t>FAROLAS LED SOLAR</t>
+  </si>
+  <si>
+    <t>PANTALLAS LED SOLAR CON SENSOR</t>
+  </si>
+  <si>
+    <t>BOMBILLAS LED SOLAR CON SENSOR</t>
+  </si>
+  <si>
+    <t>PLAFONES LED SOLAR</t>
+  </si>
+  <si>
+    <t>LAMPARAS LED SOLAR DE PARED</t>
+  </si>
+  <si>
+    <t>LAMPARAS LED SOLAR DE JARDIN</t>
+  </si>
+  <si>
+    <t>ANTORCHAS LED SOLAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPARAS DECO LED SOLAR </t>
   </si>
 </sst>
 </file>
@@ -1235,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF40A98-2910-49B0-BB76-BAF76F0B7575}">
   <dimension ref="A1:C4836"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4703" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4711" sqref="A4711"/>
+    <sheetView tabSelected="1" topLeftCell="A1149" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1259,7 +1304,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1270,7 +1315,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -1281,7 +1326,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1292,7 +1337,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -1303,7 +1348,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -1314,7 +1359,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -1325,7 +1370,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -1336,7 +1381,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -1347,7 +1392,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -1358,7 +1403,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -1369,7 +1414,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -1380,7 +1425,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -1391,7 +1436,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -1402,7 +1447,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -1413,7 +1458,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -1424,7 +1469,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -1435,7 +1480,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -1446,7 +1491,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -1457,7 +1502,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -1468,7 +1513,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
@@ -1479,7 +1524,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
@@ -1490,7 +1535,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -1501,7 +1546,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
@@ -1512,7 +1557,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
@@ -1523,7 +1568,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -1534,7 +1579,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1</v>
@@ -1545,7 +1590,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -1556,7 +1601,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1</v>
@@ -1567,7 +1612,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
@@ -1578,7 +1623,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
@@ -1589,7 +1634,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1</v>
@@ -1600,7 +1645,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1</v>
@@ -1611,7 +1656,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
@@ -1622,7 +1667,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
@@ -1633,7 +1678,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1</v>
@@ -1644,7 +1689,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1</v>
@@ -1655,7 +1700,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1</v>
@@ -1666,7 +1711,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1</v>
@@ -1677,7 +1722,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1</v>
@@ -1688,7 +1733,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>1</v>
@@ -1699,7 +1744,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -1710,7 +1755,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1</v>
@@ -1721,7 +1766,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>1</v>
@@ -1732,7 +1777,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>1</v>
@@ -1743,7 +1788,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1</v>
@@ -1754,7 +1799,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>1</v>
@@ -1765,7 +1810,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1</v>
@@ -1776,7 +1821,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>1</v>
@@ -1787,7 +1832,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>1</v>
@@ -1798,7 +1843,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>1</v>
@@ -1809,7 +1854,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>1</v>
@@ -1820,7 +1865,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>1</v>
@@ -1831,7 +1876,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>1</v>
@@ -1842,7 +1887,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>1</v>
@@ -1853,7 +1898,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>1</v>
@@ -1864,7 +1909,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>1</v>
@@ -1875,7 +1920,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>1</v>
@@ -1886,7 +1931,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>1</v>
@@ -1897,7 +1942,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>1</v>
@@ -1908,7 +1953,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>1</v>
@@ -1919,7 +1964,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>1</v>
@@ -1930,7 +1975,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>1</v>
@@ -1941,7 +1986,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>1</v>
@@ -1952,7 +1997,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>4</v>
@@ -1963,7 +2008,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>4</v>
@@ -1974,7 +2019,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>4</v>
@@ -1985,7 +2030,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>4</v>
@@ -1996,7 +2041,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>4</v>
@@ -2007,7 +2052,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>4</v>
@@ -2018,7 +2063,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>4</v>
@@ -2029,7 +2074,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>4</v>
@@ -2040,7 +2085,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>4</v>
@@ -2051,7 +2096,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>4</v>
@@ -2062,7 +2107,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>4</v>
@@ -2073,7 +2118,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>4</v>
@@ -2084,7 +2129,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>4</v>
@@ -2095,7 +2140,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>4</v>
@@ -2106,7 +2151,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>4</v>
@@ -2117,7 +2162,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>4</v>
@@ -2128,7 +2173,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>4</v>
@@ -2139,7 +2184,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>4</v>
@@ -2150,7 +2195,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>4</v>
@@ -2161,7 +2206,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>4</v>
@@ -2172,7 +2217,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>4</v>
@@ -2183,7 +2228,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>4</v>
@@ -2194,7 +2239,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>4</v>
@@ -2205,7 +2250,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>4</v>
@@ -2216,7 +2261,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>4</v>
@@ -2227,7 +2272,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>6</v>
@@ -2238,7 +2283,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>9</v>
@@ -2249,7 +2294,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>10</v>
@@ -2260,7 +2305,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>12</v>
@@ -2271,7 +2316,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>12</v>
@@ -2282,7 +2327,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>12</v>
@@ -2293,7 +2338,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>12</v>
@@ -2304,7 +2349,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>12</v>
@@ -2315,7 +2360,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>12</v>
@@ -2326,7 +2371,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>12</v>
@@ -2337,7 +2382,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>12</v>
@@ -2348,7 +2393,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>12</v>
@@ -2359,7 +2404,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>12</v>
@@ -2370,7 +2415,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>12</v>
@@ -2381,7 +2426,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>12</v>
@@ -2392,7 +2437,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>12</v>
@@ -2403,7 +2448,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>12</v>
@@ -2414,7 +2459,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>12</v>
@@ -2425,7 +2470,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>12</v>
@@ -2436,7 +2481,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>12</v>
@@ -2447,7 +2492,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>12</v>
@@ -2458,7 +2503,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>12</v>
@@ -2469,7 +2514,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>12</v>
@@ -2480,7 +2525,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>12</v>
@@ -2491,7 +2536,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>12</v>
@@ -2502,7 +2547,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>12</v>
@@ -2513,7 +2558,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>12</v>
@@ -2524,7 +2569,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>12</v>
@@ -2535,7 +2580,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>12</v>
@@ -2546,7 +2591,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>12</v>
@@ -2557,7 +2602,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>12</v>
@@ -2568,7 +2613,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>12</v>
@@ -2579,7 +2624,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>12</v>
@@ -2590,7 +2635,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>12</v>
@@ -2601,7 +2646,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>12</v>
@@ -2612,7 +2657,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>12</v>
@@ -2623,7 +2668,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>12</v>
@@ -2634,7 +2679,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>12</v>
@@ -2645,7 +2690,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>12</v>
@@ -2656,7 +2701,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>12</v>
@@ -2667,7 +2712,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>12</v>
@@ -2678,7 +2723,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>12</v>
@@ -2689,7 +2734,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>12</v>
@@ -2700,7 +2745,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>12</v>
@@ -2711,7 +2756,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>12</v>
@@ -2722,7 +2767,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>12</v>
@@ -2733,7 +2778,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>12</v>
@@ -2744,7 +2789,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>12</v>
@@ -2755,7 +2800,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>12</v>
@@ -2766,7 +2811,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>13</v>
@@ -2777,7 +2822,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>13</v>
@@ -2788,7 +2833,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>13</v>
@@ -2799,7 +2844,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>13</v>
@@ -2810,7 +2855,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>13</v>
@@ -2821,7 +2866,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>13</v>
@@ -2832,7 +2877,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>13</v>
@@ -2843,7 +2888,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>13</v>
@@ -2854,7 +2899,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>13</v>
@@ -2865,7 +2910,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>13</v>
@@ -2876,7 +2921,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>13</v>
@@ -2887,7 +2932,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>13</v>
@@ -2898,7 +2943,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>13</v>
@@ -2909,7 +2954,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>13</v>
@@ -2986,7 +3031,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>17</v>
@@ -2997,7 +3042,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="B160" s="11" t="s">
         <v>19</v>
@@ -3008,7 +3053,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="11" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>19</v>
@@ -33060,7 +33105,7 @@
     </row>
     <row r="2893" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2893" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2893" s="31" t="s">
         <v>71</v>
@@ -33071,7 +33116,7 @@
     </row>
     <row r="2894" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2894" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2894" s="31" t="s">
         <v>71</v>
@@ -33082,7 +33127,7 @@
     </row>
     <row r="2895" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2895" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2895" s="31" t="s">
         <v>71</v>
@@ -33093,7 +33138,7 @@
     </row>
     <row r="2896" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2896" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2896" s="31" t="s">
         <v>71</v>
@@ -33104,7 +33149,7 @@
     </row>
     <row r="2897" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2897" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2897" s="31" t="s">
         <v>71</v>
@@ -33115,7 +33160,7 @@
     </row>
     <row r="2898" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2898" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2898" s="31" t="s">
         <v>71</v>
@@ -33126,7 +33171,7 @@
     </row>
     <row r="2899" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2899" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2899" s="31" t="s">
         <v>71</v>
@@ -33137,7 +33182,7 @@
     </row>
     <row r="2900" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2900" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2900" s="31" t="s">
         <v>71</v>
@@ -33148,7 +33193,7 @@
     </row>
     <row r="2901" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2901" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2901" s="31" t="s">
         <v>71</v>
@@ -33159,7 +33204,7 @@
     </row>
     <row r="2902" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2902" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2902" s="31" t="s">
         <v>71</v>
@@ -33170,7 +33215,7 @@
     </row>
     <row r="2903" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2903" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2903" s="31" t="s">
         <v>71</v>
@@ -33181,7 +33226,7 @@
     </row>
     <row r="2904" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2904" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2904" s="31" t="s">
         <v>71</v>
@@ -33192,7 +33237,7 @@
     </row>
     <row r="2905" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2905" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2905" s="31" t="s">
         <v>71</v>
@@ -33203,7 +33248,7 @@
     </row>
     <row r="2906" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2906" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2906" s="31" t="s">
         <v>71</v>
@@ -33214,7 +33259,7 @@
     </row>
     <row r="2907" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2907" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2907" s="31" t="s">
         <v>71</v>
@@ -33225,7 +33270,7 @@
     </row>
     <row r="2908" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2908" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2908" s="31" t="s">
         <v>71</v>
@@ -33236,7 +33281,7 @@
     </row>
     <row r="2909" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2909" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2909" s="31" t="s">
         <v>71</v>
@@ -33247,7 +33292,7 @@
     </row>
     <row r="2910" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2910" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2910" s="31" t="s">
         <v>71</v>
@@ -33258,7 +33303,7 @@
     </row>
     <row r="2911" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2911" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2911" s="31" t="s">
         <v>71</v>
@@ -33269,7 +33314,7 @@
     </row>
     <row r="2912" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2912" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2912" s="31" t="s">
         <v>71</v>
@@ -33280,7 +33325,7 @@
     </row>
     <row r="2913" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2913" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2913" s="31" t="s">
         <v>71</v>
@@ -33291,7 +33336,7 @@
     </row>
     <row r="2914" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2914" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2914" s="31" t="s">
         <v>71</v>
@@ -33302,7 +33347,7 @@
     </row>
     <row r="2915" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2915" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2915" s="31" t="s">
         <v>71</v>
@@ -33313,7 +33358,7 @@
     </row>
     <row r="2916" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2916" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2916" s="31" t="s">
         <v>71</v>
@@ -33324,7 +33369,7 @@
     </row>
     <row r="2917" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2917" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2917" s="31" t="s">
         <v>71</v>
@@ -33335,7 +33380,7 @@
     </row>
     <row r="2918" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2918" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2918" s="31" t="s">
         <v>71</v>
@@ -33346,7 +33391,7 @@
     </row>
     <row r="2919" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2919" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2919" s="31" t="s">
         <v>71</v>
@@ -33357,7 +33402,7 @@
     </row>
     <row r="2920" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2920" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2920" s="31" t="s">
         <v>71</v>
@@ -33368,7 +33413,7 @@
     </row>
     <row r="2921" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2921" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2921" s="31" t="s">
         <v>71</v>
@@ -33379,7 +33424,7 @@
     </row>
     <row r="2922" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2922" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2922" s="31" t="s">
         <v>71</v>
@@ -33390,7 +33435,7 @@
     </row>
     <row r="2923" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2923" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2923" s="31" t="s">
         <v>71</v>
@@ -33401,7 +33446,7 @@
     </row>
     <row r="2924" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2924" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2924" s="31" t="s">
         <v>71</v>
@@ -33412,7 +33457,7 @@
     </row>
     <row r="2925" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2925" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2925" s="31" t="s">
         <v>71</v>
@@ -33423,7 +33468,7 @@
     </row>
     <row r="2926" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2926" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2926" s="31" t="s">
         <v>71</v>
@@ -33434,7 +33479,7 @@
     </row>
     <row r="2927" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2927" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2927" s="31" t="s">
         <v>71</v>
@@ -33445,7 +33490,7 @@
     </row>
     <row r="2928" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2928" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2928" s="31" t="s">
         <v>71</v>
@@ -33456,7 +33501,7 @@
     </row>
     <row r="2929" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2929" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2929" s="31" t="s">
         <v>71</v>
@@ -33467,7 +33512,7 @@
     </row>
     <row r="2930" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2930" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2930" s="31" t="s">
         <v>71</v>
@@ -33478,7 +33523,7 @@
     </row>
     <row r="2931" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2931" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2931" s="31" t="s">
         <v>71</v>
@@ -33489,7 +33534,7 @@
     </row>
     <row r="2932" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2932" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2932" s="31" t="s">
         <v>71</v>
@@ -33500,7 +33545,7 @@
     </row>
     <row r="2933" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2933" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2933" s="31" t="s">
         <v>71</v>
@@ -33511,7 +33556,7 @@
     </row>
     <row r="2934" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2934" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2934" s="31" t="s">
         <v>71</v>
@@ -33522,7 +33567,7 @@
     </row>
     <row r="2935" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2935" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2935" s="31" t="s">
         <v>71</v>
@@ -33533,7 +33578,7 @@
     </row>
     <row r="2936" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2936" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2936" s="31" t="s">
         <v>71</v>
@@ -33544,7 +33589,7 @@
     </row>
     <row r="2937" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2937" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2937" s="31" t="s">
         <v>71</v>
@@ -33555,7 +33600,7 @@
     </row>
     <row r="2938" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2938" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2938" s="31" t="s">
         <v>71</v>
@@ -33566,7 +33611,7 @@
     </row>
     <row r="2939" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2939" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2939" s="31" t="s">
         <v>71</v>
@@ -33577,7 +33622,7 @@
     </row>
     <row r="2940" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2940" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2940" s="31" t="s">
         <v>71</v>
@@ -33588,7 +33633,7 @@
     </row>
     <row r="2941" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2941" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2941" s="31" t="s">
         <v>71</v>
@@ -33599,7 +33644,7 @@
     </row>
     <row r="2942" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2942" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2942" s="31" t="s">
         <v>71</v>
@@ -33610,7 +33655,7 @@
     </row>
     <row r="2943" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2943" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2943" s="31" t="s">
         <v>71</v>
@@ -33621,7 +33666,7 @@
     </row>
     <row r="2944" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2944" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2944" s="31" t="s">
         <v>71</v>
@@ -33632,7 +33677,7 @@
     </row>
     <row r="2945" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2945" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2945" s="31" t="s">
         <v>71</v>
@@ -33643,7 +33688,7 @@
     </row>
     <row r="2946" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2946" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2946" s="31" t="s">
         <v>71</v>
@@ -33654,7 +33699,7 @@
     </row>
     <row r="2947" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2947" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2947" s="31" t="s">
         <v>71</v>
@@ -33665,7 +33710,7 @@
     </row>
     <row r="2948" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2948" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2948" s="31" t="s">
         <v>71</v>
@@ -33676,7 +33721,7 @@
     </row>
     <row r="2949" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2949" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2949" s="31" t="s">
         <v>71</v>
@@ -33687,7 +33732,7 @@
     </row>
     <row r="2950" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2950" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2950" s="31" t="s">
         <v>71</v>
@@ -33698,7 +33743,7 @@
     </row>
     <row r="2951" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2951" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2951" s="31" t="s">
         <v>71</v>
@@ -33709,7 +33754,7 @@
     </row>
     <row r="2952" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2952" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2952" s="31" t="s">
         <v>71</v>
@@ -33720,7 +33765,7 @@
     </row>
     <row r="2953" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2953" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2953" s="31" t="s">
         <v>71</v>
@@ -33731,7 +33776,7 @@
     </row>
     <row r="2954" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2954" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2954" s="31" t="s">
         <v>71</v>
@@ -33742,7 +33787,7 @@
     </row>
     <row r="2955" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2955" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2955" s="31" t="s">
         <v>71</v>
@@ -33753,7 +33798,7 @@
     </row>
     <row r="2956" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2956" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2956" s="31" t="s">
         <v>71</v>
@@ -33764,7 +33809,7 @@
     </row>
     <row r="2957" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2957" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2957" s="31" t="s">
         <v>71</v>
@@ -33775,7 +33820,7 @@
     </row>
     <row r="2958" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2958" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2958" s="31" t="s">
         <v>71</v>
@@ -33786,7 +33831,7 @@
     </row>
     <row r="2959" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2959" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2959" s="31" t="s">
         <v>71</v>
@@ -33797,7 +33842,7 @@
     </row>
     <row r="2960" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2960" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2960" s="31" t="s">
         <v>71</v>
@@ -33808,7 +33853,7 @@
     </row>
     <row r="2961" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2961" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2961" s="31" t="s">
         <v>71</v>
@@ -33819,7 +33864,7 @@
     </row>
     <row r="2962" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2962" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2962" s="31" t="s">
         <v>71</v>
@@ -33830,7 +33875,7 @@
     </row>
     <row r="2963" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2963" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2963" s="31" t="s">
         <v>71</v>
@@ -33841,7 +33886,7 @@
     </row>
     <row r="2964" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2964" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2964" s="31" t="s">
         <v>71</v>
@@ -33852,7 +33897,7 @@
     </row>
     <row r="2965" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2965" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2965" s="31" t="s">
         <v>71</v>
@@ -33863,7 +33908,7 @@
     </row>
     <row r="2966" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2966" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2966" s="31" t="s">
         <v>71</v>
@@ -33874,7 +33919,7 @@
     </row>
     <row r="2967" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2967" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2967" s="31" t="s">
         <v>71</v>
@@ -33885,7 +33930,7 @@
     </row>
     <row r="2968" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2968" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2968" s="31" t="s">
         <v>71</v>
@@ -33896,7 +33941,7 @@
     </row>
     <row r="2969" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2969" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2969" s="31" t="s">
         <v>71</v>
@@ -33907,7 +33952,7 @@
     </row>
     <row r="2970" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2970" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2970" s="31" t="s">
         <v>71</v>
@@ -33918,7 +33963,7 @@
     </row>
     <row r="2971" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2971" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2971" s="31" t="s">
         <v>71</v>
@@ -33929,7 +33974,7 @@
     </row>
     <row r="2972" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2972" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2972" s="31" t="s">
         <v>71</v>
@@ -33940,7 +33985,7 @@
     </row>
     <row r="2973" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2973" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2973" s="31" t="s">
         <v>71</v>
@@ -33951,7 +33996,7 @@
     </row>
     <row r="2974" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2974" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2974" s="31" t="s">
         <v>71</v>
@@ -33962,7 +34007,7 @@
     </row>
     <row r="2975" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2975" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2975" s="31" t="s">
         <v>71</v>
@@ -33973,7 +34018,7 @@
     </row>
     <row r="2976" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2976" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2976" s="31" t="s">
         <v>71</v>
@@ -33984,7 +34029,7 @@
     </row>
     <row r="2977" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2977" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2977" s="31" t="s">
         <v>71</v>
@@ -33995,7 +34040,7 @@
     </row>
     <row r="2978" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2978" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2978" s="31" t="s">
         <v>71</v>
@@ -34006,7 +34051,7 @@
     </row>
     <row r="2979" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2979" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2979" s="31" t="s">
         <v>71</v>
@@ -34017,7 +34062,7 @@
     </row>
     <row r="2980" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2980" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2980" s="31" t="s">
         <v>71</v>
@@ -34028,7 +34073,7 @@
     </row>
     <row r="2981" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2981" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2981" s="31" t="s">
         <v>71</v>
@@ -34039,7 +34084,7 @@
     </row>
     <row r="2982" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2982" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2982" s="31" t="s">
         <v>71</v>
@@ -34050,7 +34095,7 @@
     </row>
     <row r="2983" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2983" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2983" s="31" t="s">
         <v>71</v>
@@ -34061,7 +34106,7 @@
     </row>
     <row r="2984" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2984" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2984" s="31" t="s">
         <v>71</v>
@@ -34072,7 +34117,7 @@
     </row>
     <row r="2985" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2985" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2985" s="31" t="s">
         <v>71</v>
@@ -34083,7 +34128,7 @@
     </row>
     <row r="2986" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2986" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2986" s="31" t="s">
         <v>71</v>
@@ -34094,7 +34139,7 @@
     </row>
     <row r="2987" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2987" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2987" s="31" t="s">
         <v>71</v>
@@ -34105,7 +34150,7 @@
     </row>
     <row r="2988" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2988" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2988" s="31" t="s">
         <v>71</v>
@@ -34116,7 +34161,7 @@
     </row>
     <row r="2989" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2989" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2989" s="31" t="s">
         <v>71</v>
@@ -34127,7 +34172,7 @@
     </row>
     <row r="2990" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2990" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2990" s="31" t="s">
         <v>71</v>
@@ -34138,7 +34183,7 @@
     </row>
     <row r="2991" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2991" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2991" s="31" t="s">
         <v>71</v>
@@ -34149,7 +34194,7 @@
     </row>
     <row r="2992" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2992" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2992" s="31" t="s">
         <v>71</v>
@@ -34160,7 +34205,7 @@
     </row>
     <row r="2993" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2993" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2993" s="31" t="s">
         <v>71</v>
@@ -34171,7 +34216,7 @@
     </row>
     <row r="2994" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2994" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2994" s="31" t="s">
         <v>71</v>
@@ -34182,7 +34227,7 @@
     </row>
     <row r="2995" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2995" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2995" s="31" t="s">
         <v>71</v>
@@ -34193,7 +34238,7 @@
     </row>
     <row r="2996" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2996" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2996" s="31" t="s">
         <v>71</v>
@@ -34204,7 +34249,7 @@
     </row>
     <row r="2997" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2997" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2997" s="31" t="s">
         <v>71</v>
@@ -34215,7 +34260,7 @@
     </row>
     <row r="2998" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2998" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2998" s="31" t="s">
         <v>71</v>
@@ -34226,7 +34271,7 @@
     </row>
     <row r="2999" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2999" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B2999" s="31" t="s">
         <v>71</v>
@@ -34237,7 +34282,7 @@
     </row>
     <row r="3000" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3000" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3000" s="31" t="s">
         <v>71</v>
@@ -34248,7 +34293,7 @@
     </row>
     <row r="3001" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3001" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3001" s="31" t="s">
         <v>71</v>
@@ -34259,7 +34304,7 @@
     </row>
     <row r="3002" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3002" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3002" s="31" t="s">
         <v>71</v>
@@ -34270,7 +34315,7 @@
     </row>
     <row r="3003" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3003" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3003" s="31" t="s">
         <v>71</v>
@@ -34281,7 +34326,7 @@
     </row>
     <row r="3004" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3004" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3004" s="31" t="s">
         <v>71</v>
@@ -34292,7 +34337,7 @@
     </row>
     <row r="3005" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3005" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3005" s="31" t="s">
         <v>71</v>
@@ -34303,7 +34348,7 @@
     </row>
     <row r="3006" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3006" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3006" s="31" t="s">
         <v>71</v>
@@ -34314,7 +34359,7 @@
     </row>
     <row r="3007" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3007" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3007" s="31" t="s">
         <v>71</v>
@@ -34325,7 +34370,7 @@
     </row>
     <row r="3008" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3008" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3008" s="31" t="s">
         <v>71</v>
@@ -34336,7 +34381,7 @@
     </row>
     <row r="3009" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3009" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3009" s="31" t="s">
         <v>71</v>
@@ -34347,7 +34392,7 @@
     </row>
     <row r="3010" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3010" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3010" s="31" t="s">
         <v>71</v>
@@ -34358,7 +34403,7 @@
     </row>
     <row r="3011" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3011" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3011" s="31" t="s">
         <v>71</v>
@@ -34369,7 +34414,7 @@
     </row>
     <row r="3012" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3012" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3012" s="31" t="s">
         <v>71</v>
@@ -34380,7 +34425,7 @@
     </row>
     <row r="3013" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3013" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3013" s="31" t="s">
         <v>71</v>
@@ -34391,7 +34436,7 @@
     </row>
     <row r="3014" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3014" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3014" s="31" t="s">
         <v>71</v>
@@ -34402,7 +34447,7 @@
     </row>
     <row r="3015" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3015" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3015" s="31" t="s">
         <v>71</v>
@@ -34413,7 +34458,7 @@
     </row>
     <row r="3016" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3016" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3016" s="31" t="s">
         <v>71</v>
@@ -34424,7 +34469,7 @@
     </row>
     <row r="3017" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3017" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3017" s="31" t="s">
         <v>71</v>
@@ -34435,7 +34480,7 @@
     </row>
     <row r="3018" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3018" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3018" s="31" t="s">
         <v>71</v>
@@ -34446,7 +34491,7 @@
     </row>
     <row r="3019" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3019" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3019" s="31" t="s">
         <v>71</v>
@@ -34457,7 +34502,7 @@
     </row>
     <row r="3020" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3020" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3020" s="31" t="s">
         <v>71</v>
@@ -34468,7 +34513,7 @@
     </row>
     <row r="3021" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3021" s="31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B3021" s="31" t="s">
         <v>71</v>
@@ -34963,7 +35008,7 @@
     </row>
     <row r="3066" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3066" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3066" s="33" t="s">
         <v>74</v>
@@ -34974,7 +35019,7 @@
     </row>
     <row r="3067" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3067" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3067" s="33" t="s">
         <v>74</v>
@@ -34985,7 +35030,7 @@
     </row>
     <row r="3068" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3068" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3068" s="33" t="s">
         <v>74</v>
@@ -34996,7 +35041,7 @@
     </row>
     <row r="3069" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3069" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3069" s="33" t="s">
         <v>74</v>
@@ -35007,7 +35052,7 @@
     </row>
     <row r="3070" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3070" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3070" s="33" t="s">
         <v>74</v>
@@ -35018,7 +35063,7 @@
     </row>
     <row r="3071" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3071" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3071" s="33" t="s">
         <v>74</v>
@@ -35029,7 +35074,7 @@
     </row>
     <row r="3072" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3072" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3072" s="33" t="s">
         <v>74</v>
@@ -35040,7 +35085,7 @@
     </row>
     <row r="3073" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3073" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3073" s="33" t="s">
         <v>74</v>
@@ -35051,7 +35096,7 @@
     </row>
     <row r="3074" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3074" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3074" s="33" t="s">
         <v>74</v>
@@ -35062,7 +35107,7 @@
     </row>
     <row r="3075" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3075" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3075" s="33" t="s">
         <v>74</v>
@@ -35073,7 +35118,7 @@
     </row>
     <row r="3076" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3076" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3076" s="33" t="s">
         <v>74</v>
@@ -35084,7 +35129,7 @@
     </row>
     <row r="3077" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3077" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3077" s="33" t="s">
         <v>74</v>
@@ -35095,7 +35140,7 @@
     </row>
     <row r="3078" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3078" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3078" s="33" t="s">
         <v>74</v>
@@ -35106,7 +35151,7 @@
     </row>
     <row r="3079" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3079" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3079" s="33" t="s">
         <v>74</v>
@@ -35117,7 +35162,7 @@
     </row>
     <row r="3080" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3080" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3080" s="33" t="s">
         <v>74</v>
@@ -35128,7 +35173,7 @@
     </row>
     <row r="3081" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3081" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3081" s="33" t="s">
         <v>74</v>
@@ -35139,7 +35184,7 @@
     </row>
     <row r="3082" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3082" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3082" s="33" t="s">
         <v>74</v>
@@ -35150,7 +35195,7 @@
     </row>
     <row r="3083" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3083" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3083" s="33" t="s">
         <v>74</v>
@@ -35161,7 +35206,7 @@
     </row>
     <row r="3084" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3084" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3084" s="33" t="s">
         <v>74</v>
@@ -35172,7 +35217,7 @@
     </row>
     <row r="3085" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3085" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3085" s="33" t="s">
         <v>74</v>
@@ -35183,7 +35228,7 @@
     </row>
     <row r="3086" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3086" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3086" s="33" t="s">
         <v>74</v>
@@ -35194,7 +35239,7 @@
     </row>
     <row r="3087" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3087" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3087" s="33" t="s">
         <v>74</v>
@@ -35205,7 +35250,7 @@
     </row>
     <row r="3088" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3088" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3088" s="33" t="s">
         <v>74</v>
@@ -35216,7 +35261,7 @@
     </row>
     <row r="3089" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3089" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3089" s="33" t="s">
         <v>74</v>
@@ -35227,7 +35272,7 @@
     </row>
     <row r="3090" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3090" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3090" s="33" t="s">
         <v>74</v>
@@ -35238,7 +35283,7 @@
     </row>
     <row r="3091" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3091" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3091" s="33" t="s">
         <v>74</v>
@@ -35249,7 +35294,7 @@
     </row>
     <row r="3092" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3092" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3092" s="33" t="s">
         <v>74</v>
@@ -35260,7 +35305,7 @@
     </row>
     <row r="3093" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3093" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3093" s="33" t="s">
         <v>74</v>
@@ -35271,7 +35316,7 @@
     </row>
     <row r="3094" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3094" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3094" s="33" t="s">
         <v>74</v>
@@ -35282,7 +35327,7 @@
     </row>
     <row r="3095" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3095" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3095" s="33" t="s">
         <v>74</v>
@@ -35293,7 +35338,7 @@
     </row>
     <row r="3096" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3096" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3096" s="33" t="s">
         <v>74</v>
@@ -35304,7 +35349,7 @@
     </row>
     <row r="3097" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3097" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3097" s="33" t="s">
         <v>74</v>
@@ -35315,7 +35360,7 @@
     </row>
     <row r="3098" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3098" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3098" s="33" t="s">
         <v>74</v>
@@ -35326,7 +35371,7 @@
     </row>
     <row r="3099" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3099" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3099" s="33" t="s">
         <v>74</v>
@@ -35337,7 +35382,7 @@
     </row>
     <row r="3100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3100" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3100" s="33" t="s">
         <v>74</v>
@@ -35348,7 +35393,7 @@
     </row>
     <row r="3101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3101" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3101" s="33" t="s">
         <v>74</v>
@@ -35359,7 +35404,7 @@
     </row>
     <row r="3102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3102" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3102" s="33" t="s">
         <v>74</v>
@@ -35370,7 +35415,7 @@
     </row>
     <row r="3103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3103" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3103" s="33" t="s">
         <v>74</v>
@@ -35381,7 +35426,7 @@
     </row>
     <row r="3104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3104" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3104" s="33" t="s">
         <v>74</v>
@@ -35392,7 +35437,7 @@
     </row>
     <row r="3105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3105" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3105" s="33" t="s">
         <v>74</v>
@@ -35403,7 +35448,7 @@
     </row>
     <row r="3106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3106" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3106" s="33" t="s">
         <v>74</v>
@@ -35414,7 +35459,7 @@
     </row>
     <row r="3107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3107" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3107" s="33" t="s">
         <v>74</v>
@@ -35425,7 +35470,7 @@
     </row>
     <row r="3108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3108" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3108" s="33" t="s">
         <v>74</v>
@@ -35436,7 +35481,7 @@
     </row>
     <row r="3109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3109" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3109" s="33" t="s">
         <v>74</v>
@@ -35447,7 +35492,7 @@
     </row>
     <row r="3110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3110" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3110" s="33" t="s">
         <v>74</v>
@@ -35458,7 +35503,7 @@
     </row>
     <row r="3111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3111" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3111" s="33" t="s">
         <v>74</v>
@@ -35469,7 +35514,7 @@
     </row>
     <row r="3112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3112" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3112" s="33" t="s">
         <v>74</v>
@@ -35480,7 +35525,7 @@
     </row>
     <row r="3113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3113" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3113" s="33" t="s">
         <v>74</v>
@@ -35491,7 +35536,7 @@
     </row>
     <row r="3114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3114" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3114" s="33" t="s">
         <v>74</v>
@@ -35502,7 +35547,7 @@
     </row>
     <row r="3115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3115" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3115" s="33" t="s">
         <v>74</v>
@@ -35513,7 +35558,7 @@
     </row>
     <row r="3116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3116" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3116" s="33" t="s">
         <v>74</v>
@@ -35524,7 +35569,7 @@
     </row>
     <row r="3117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3117" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3117" s="33" t="s">
         <v>74</v>
@@ -35535,7 +35580,7 @@
     </row>
     <row r="3118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3118" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3118" s="33" t="s">
         <v>74</v>
@@ -35546,7 +35591,7 @@
     </row>
     <row r="3119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3119" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3119" s="33" t="s">
         <v>74</v>
@@ -35557,7 +35602,7 @@
     </row>
     <row r="3120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3120" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3120" s="33" t="s">
         <v>74</v>
@@ -35568,7 +35613,7 @@
     </row>
     <row r="3121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3121" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3121" s="33" t="s">
         <v>74</v>
@@ -35579,7 +35624,7 @@
     </row>
     <row r="3122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3122" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3122" s="33" t="s">
         <v>74</v>
@@ -35590,7 +35635,7 @@
     </row>
     <row r="3123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3123" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3123" s="33" t="s">
         <v>74</v>
@@ -35601,7 +35646,7 @@
     </row>
     <row r="3124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3124" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3124" s="33" t="s">
         <v>74</v>
@@ -35612,7 +35657,7 @@
     </row>
     <row r="3125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3125" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3125" s="33" t="s">
         <v>74</v>
@@ -35623,7 +35668,7 @@
     </row>
     <row r="3126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3126" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3126" s="33" t="s">
         <v>74</v>
@@ -35634,7 +35679,7 @@
     </row>
     <row r="3127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3127" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3127" s="33" t="s">
         <v>74</v>
@@ -35645,7 +35690,7 @@
     </row>
     <row r="3128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3128" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3128" s="33" t="s">
         <v>74</v>
@@ -35656,7 +35701,7 @@
     </row>
     <row r="3129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3129" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3129" s="33" t="s">
         <v>74</v>
@@ -35667,7 +35712,7 @@
     </row>
     <row r="3130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3130" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3130" s="33" t="s">
         <v>74</v>
@@ -35678,7 +35723,7 @@
     </row>
     <row r="3131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3131" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3131" s="33" t="s">
         <v>74</v>
@@ -35689,7 +35734,7 @@
     </row>
     <row r="3132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3132" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3132" s="33" t="s">
         <v>74</v>
@@ -35700,7 +35745,7 @@
     </row>
     <row r="3133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3133" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3133" s="33" t="s">
         <v>74</v>
@@ -35711,7 +35756,7 @@
     </row>
     <row r="3134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3134" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3134" s="33" t="s">
         <v>74</v>
@@ -35722,7 +35767,7 @@
     </row>
     <row r="3135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3135" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3135" s="33" t="s">
         <v>74</v>
@@ -35733,7 +35778,7 @@
     </row>
     <row r="3136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3136" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3136" s="33" t="s">
         <v>74</v>
@@ -35744,7 +35789,7 @@
     </row>
     <row r="3137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3137" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3137" s="33" t="s">
         <v>74</v>
@@ -35755,7 +35800,7 @@
     </row>
     <row r="3138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3138" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3138" s="33" t="s">
         <v>74</v>
@@ -35766,7 +35811,7 @@
     </row>
     <row r="3139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3139" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3139" s="33" t="s">
         <v>74</v>
@@ -35777,7 +35822,7 @@
     </row>
     <row r="3140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3140" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3140" s="33" t="s">
         <v>74</v>
@@ -35788,7 +35833,7 @@
     </row>
     <row r="3141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3141" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3141" s="33" t="s">
         <v>74</v>
@@ -35799,7 +35844,7 @@
     </row>
     <row r="3142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3142" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3142" s="33" t="s">
         <v>74</v>
@@ -35810,7 +35855,7 @@
     </row>
     <row r="3143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3143" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3143" s="33" t="s">
         <v>74</v>
@@ -35821,7 +35866,7 @@
     </row>
     <row r="3144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3144" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3144" s="33" t="s">
         <v>74</v>
@@ -35832,7 +35877,7 @@
     </row>
     <row r="3145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3145" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3145" s="33" t="s">
         <v>74</v>
@@ -35843,7 +35888,7 @@
     </row>
     <row r="3146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3146" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3146" s="33" t="s">
         <v>74</v>
@@ -35854,7 +35899,7 @@
     </row>
     <row r="3147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3147" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3147" s="33" t="s">
         <v>74</v>
@@ -35865,7 +35910,7 @@
     </row>
     <row r="3148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3148" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3148" s="33" t="s">
         <v>74</v>
@@ -35876,7 +35921,7 @@
     </row>
     <row r="3149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3149" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3149" s="33" t="s">
         <v>74</v>
@@ -35887,7 +35932,7 @@
     </row>
     <row r="3150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3150" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3150" s="33" t="s">
         <v>74</v>
@@ -35898,7 +35943,7 @@
     </row>
     <row r="3151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3151" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3151" s="33" t="s">
         <v>74</v>
@@ -35909,7 +35954,7 @@
     </row>
     <row r="3152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3152" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3152" s="33" t="s">
         <v>74</v>
@@ -35920,7 +35965,7 @@
     </row>
     <row r="3153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3153" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3153" s="33" t="s">
         <v>74</v>
@@ -35931,7 +35976,7 @@
     </row>
     <row r="3154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3154" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3154" s="33" t="s">
         <v>74</v>
@@ -35942,7 +35987,7 @@
     </row>
     <row r="3155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3155" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3155" s="33" t="s">
         <v>74</v>
@@ -35953,7 +35998,7 @@
     </row>
     <row r="3156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3156" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3156" s="33" t="s">
         <v>74</v>
@@ -35964,7 +36009,7 @@
     </row>
     <row r="3157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3157" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3157" s="33" t="s">
         <v>74</v>
@@ -35975,7 +36020,7 @@
     </row>
     <row r="3158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3158" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3158" s="33" t="s">
         <v>74</v>
@@ -35986,7 +36031,7 @@
     </row>
     <row r="3159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3159" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3159" s="33" t="s">
         <v>74</v>
@@ -35997,7 +36042,7 @@
     </row>
     <row r="3160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3160" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3160" s="33" t="s">
         <v>74</v>
@@ -36008,7 +36053,7 @@
     </row>
     <row r="3161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3161" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3161" s="33" t="s">
         <v>74</v>
@@ -36019,7 +36064,7 @@
     </row>
     <row r="3162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3162" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3162" s="33" t="s">
         <v>74</v>
@@ -36030,7 +36075,7 @@
     </row>
     <row r="3163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3163" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3163" s="33" t="s">
         <v>74</v>
@@ -36041,7 +36086,7 @@
     </row>
     <row r="3164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3164" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3164" s="33" t="s">
         <v>74</v>
@@ -36052,7 +36097,7 @@
     </row>
     <row r="3165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3165" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3165" s="33" t="s">
         <v>74</v>
@@ -36063,7 +36108,7 @@
     </row>
     <row r="3166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3166" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3166" s="33" t="s">
         <v>74</v>
@@ -36074,7 +36119,7 @@
     </row>
     <row r="3167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3167" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3167" s="33" t="s">
         <v>74</v>
@@ -36085,7 +36130,7 @@
     </row>
     <row r="3168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3168" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3168" s="33" t="s">
         <v>74</v>
@@ -36096,7 +36141,7 @@
     </row>
     <row r="3169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3169" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3169" s="33" t="s">
         <v>74</v>
@@ -36107,7 +36152,7 @@
     </row>
     <row r="3170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3170" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3170" s="33" t="s">
         <v>74</v>
@@ -36118,7 +36163,7 @@
     </row>
     <row r="3171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3171" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3171" s="33" t="s">
         <v>74</v>
@@ -36129,7 +36174,7 @@
     </row>
     <row r="3172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3172" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3172" s="33" t="s">
         <v>74</v>
@@ -36140,7 +36185,7 @@
     </row>
     <row r="3173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3173" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3173" s="33" t="s">
         <v>74</v>
@@ -36151,7 +36196,7 @@
     </row>
     <row r="3174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3174" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3174" s="33" t="s">
         <v>74</v>
@@ -36162,7 +36207,7 @@
     </row>
     <row r="3175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3175" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3175" s="33" t="s">
         <v>74</v>
@@ -36173,7 +36218,7 @@
     </row>
     <row r="3176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3176" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3176" s="33" t="s">
         <v>74</v>
@@ -36184,7 +36229,7 @@
     </row>
     <row r="3177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3177" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3177" s="33" t="s">
         <v>74</v>
@@ -36195,7 +36240,7 @@
     </row>
     <row r="3178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3178" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3178" s="33" t="s">
         <v>74</v>
@@ -36206,7 +36251,7 @@
     </row>
     <row r="3179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3179" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3179" s="33" t="s">
         <v>74</v>
@@ -36217,7 +36262,7 @@
     </row>
     <row r="3180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3180" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3180" s="33" t="s">
         <v>74</v>
@@ -36228,7 +36273,7 @@
     </row>
     <row r="3181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3181" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3181" s="33" t="s">
         <v>74</v>
@@ -36239,7 +36284,7 @@
     </row>
     <row r="3182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3182" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3182" s="33" t="s">
         <v>74</v>
@@ -36250,7 +36295,7 @@
     </row>
     <row r="3183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3183" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3183" s="33" t="s">
         <v>74</v>
@@ -36261,7 +36306,7 @@
     </row>
     <row r="3184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3184" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3184" s="33" t="s">
         <v>74</v>
@@ -36272,7 +36317,7 @@
     </row>
     <row r="3185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3185" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3185" s="33" t="s">
         <v>74</v>
@@ -36283,7 +36328,7 @@
     </row>
     <row r="3186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3186" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3186" s="33" t="s">
         <v>74</v>
@@ -36294,7 +36339,7 @@
     </row>
     <row r="3187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3187" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3187" s="33" t="s">
         <v>74</v>
@@ -36305,7 +36350,7 @@
     </row>
     <row r="3188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3188" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3188" s="33" t="s">
         <v>74</v>
@@ -36316,7 +36361,7 @@
     </row>
     <row r="3189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3189" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3189" s="33" t="s">
         <v>74</v>
@@ -36327,7 +36372,7 @@
     </row>
     <row r="3190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3190" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3190" s="33" t="s">
         <v>74</v>
@@ -36338,7 +36383,7 @@
     </row>
     <row r="3191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3191" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3191" s="33" t="s">
         <v>74</v>
@@ -36349,7 +36394,7 @@
     </row>
     <row r="3192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3192" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3192" s="33" t="s">
         <v>74</v>
@@ -36360,7 +36405,7 @@
     </row>
     <row r="3193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3193" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3193" s="33" t="s">
         <v>74</v>
@@ -36371,7 +36416,7 @@
     </row>
     <row r="3194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3194" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3194" s="33" t="s">
         <v>74</v>
@@ -36382,7 +36427,7 @@
     </row>
     <row r="3195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3195" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3195" s="33" t="s">
         <v>74</v>
@@ -36393,7 +36438,7 @@
     </row>
     <row r="3196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3196" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3196" s="33" t="s">
         <v>74</v>
@@ -36404,7 +36449,7 @@
     </row>
     <row r="3197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3197" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3197" s="33" t="s">
         <v>74</v>
@@ -36415,7 +36460,7 @@
     </row>
     <row r="3198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3198" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3198" s="33" t="s">
         <v>74</v>
@@ -36426,7 +36471,7 @@
     </row>
     <row r="3199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3199" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3199" s="33" t="s">
         <v>74</v>
@@ -36437,7 +36482,7 @@
     </row>
     <row r="3200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3200" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3200" s="33" t="s">
         <v>74</v>
@@ -36448,7 +36493,7 @@
     </row>
     <row r="3201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3201" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3201" s="33" t="s">
         <v>74</v>
@@ -36459,7 +36504,7 @@
     </row>
     <row r="3202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3202" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3202" s="33" t="s">
         <v>74</v>
@@ -36470,7 +36515,7 @@
     </row>
     <row r="3203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3203" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3203" s="33" t="s">
         <v>74</v>
@@ -36481,7 +36526,7 @@
     </row>
     <row r="3204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3204" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3204" s="33" t="s">
         <v>74</v>
@@ -36492,7 +36537,7 @@
     </row>
     <row r="3205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3205" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3205" s="33" t="s">
         <v>74</v>
@@ -36503,7 +36548,7 @@
     </row>
     <row r="3206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3206" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3206" s="33" t="s">
         <v>74</v>
@@ -36514,7 +36559,7 @@
     </row>
     <row r="3207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3207" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3207" s="33" t="s">
         <v>74</v>
@@ -36525,7 +36570,7 @@
     </row>
     <row r="3208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3208" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3208" s="33" t="s">
         <v>74</v>
@@ -36536,7 +36581,7 @@
     </row>
     <row r="3209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3209" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3209" s="33" t="s">
         <v>74</v>
@@ -36547,7 +36592,7 @@
     </row>
     <row r="3210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3210" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3210" s="33" t="s">
         <v>74</v>
@@ -36558,7 +36603,7 @@
     </row>
     <row r="3211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3211" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3211" s="33" t="s">
         <v>74</v>
@@ -36569,7 +36614,7 @@
     </row>
     <row r="3212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3212" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3212" s="33" t="s">
         <v>74</v>
@@ -36580,7 +36625,7 @@
     </row>
     <row r="3213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3213" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3213" s="33" t="s">
         <v>74</v>
@@ -36591,7 +36636,7 @@
     </row>
     <row r="3214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3214" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3214" s="33" t="s">
         <v>74</v>
@@ -36602,7 +36647,7 @@
     </row>
     <row r="3215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3215" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3215" s="33" t="s">
         <v>74</v>
@@ -36613,7 +36658,7 @@
     </row>
     <row r="3216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3216" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3216" s="33" t="s">
         <v>74</v>
@@ -36624,7 +36669,7 @@
     </row>
     <row r="3217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3217" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3217" s="33" t="s">
         <v>74</v>
@@ -36635,7 +36680,7 @@
     </row>
     <row r="3218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3218" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3218" s="33" t="s">
         <v>74</v>
@@ -36646,7 +36691,7 @@
     </row>
     <row r="3219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3219" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3219" s="33" t="s">
         <v>74</v>
@@ -36657,7 +36702,7 @@
     </row>
     <row r="3220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3220" s="33" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B3220" s="33" t="s">
         <v>74</v>
@@ -36668,7 +36713,7 @@
     </row>
     <row r="3221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3221" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3221" s="34" t="s">
         <v>78</v>
@@ -36679,7 +36724,7 @@
     </row>
     <row r="3222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3222" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3222" s="34" t="s">
         <v>78</v>
@@ -36690,7 +36735,7 @@
     </row>
     <row r="3223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3223" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3223" s="34" t="s">
         <v>78</v>
@@ -36701,7 +36746,7 @@
     </row>
     <row r="3224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3224" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3224" s="34" t="s">
         <v>78</v>
@@ -36712,7 +36757,7 @@
     </row>
     <row r="3225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3225" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3225" s="34" t="s">
         <v>78</v>
@@ -36723,7 +36768,7 @@
     </row>
     <row r="3226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3226" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3226" s="34" t="s">
         <v>78</v>
@@ -36734,7 +36779,7 @@
     </row>
     <row r="3227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3227" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3227" s="34" t="s">
         <v>78</v>
@@ -36745,7 +36790,7 @@
     </row>
     <row r="3228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3228" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3228" s="34" t="s">
         <v>78</v>
@@ -36756,7 +36801,7 @@
     </row>
     <row r="3229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3229" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3229" s="34" t="s">
         <v>78</v>
@@ -36767,7 +36812,7 @@
     </row>
     <row r="3230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3230" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3230" s="34" t="s">
         <v>78</v>
@@ -36778,7 +36823,7 @@
     </row>
     <row r="3231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3231" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3231" s="34" t="s">
         <v>78</v>
@@ -36789,7 +36834,7 @@
     </row>
     <row r="3232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3232" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3232" s="34" t="s">
         <v>78</v>
@@ -36800,7 +36845,7 @@
     </row>
     <row r="3233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3233" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3233" s="34" t="s">
         <v>78</v>
@@ -36811,7 +36856,7 @@
     </row>
     <row r="3234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3234" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3234" s="34" t="s">
         <v>78</v>
@@ -36822,7 +36867,7 @@
     </row>
     <row r="3235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3235" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3235" s="34" t="s">
         <v>78</v>
@@ -36833,7 +36878,7 @@
     </row>
     <row r="3236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3236" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3236" s="34" t="s">
         <v>78</v>
@@ -36844,7 +36889,7 @@
     </row>
     <row r="3237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3237" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3237" s="34" t="s">
         <v>78</v>
@@ -36855,7 +36900,7 @@
     </row>
     <row r="3238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3238" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3238" s="34" t="s">
         <v>78</v>
@@ -36866,7 +36911,7 @@
     </row>
     <row r="3239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3239" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3239" s="34" t="s">
         <v>78</v>
@@ -36877,7 +36922,7 @@
     </row>
     <row r="3240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3240" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3240" s="34" t="s">
         <v>78</v>
@@ -36888,7 +36933,7 @@
     </row>
     <row r="3241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3241" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3241" s="34" t="s">
         <v>78</v>
@@ -36899,7 +36944,7 @@
     </row>
     <row r="3242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3242" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3242" s="34" t="s">
         <v>78</v>
@@ -36910,7 +36955,7 @@
     </row>
     <row r="3243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3243" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3243" s="34" t="s">
         <v>78</v>
@@ -36921,7 +36966,7 @@
     </row>
     <row r="3244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3244" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3244" s="34" t="s">
         <v>78</v>
@@ -36932,7 +36977,7 @@
     </row>
     <row r="3245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3245" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3245" s="34" t="s">
         <v>78</v>
@@ -36943,7 +36988,7 @@
     </row>
     <row r="3246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3246" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3246" s="34" t="s">
         <v>78</v>
@@ -36954,7 +36999,7 @@
     </row>
     <row r="3247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3247" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3247" s="34" t="s">
         <v>78</v>
@@ -36965,7 +37010,7 @@
     </row>
     <row r="3248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3248" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3248" s="34" t="s">
         <v>78</v>
@@ -36976,7 +37021,7 @@
     </row>
     <row r="3249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3249" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3249" s="34" t="s">
         <v>78</v>
@@ -36987,7 +37032,7 @@
     </row>
     <row r="3250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3250" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3250" s="34" t="s">
         <v>78</v>
@@ -36998,7 +37043,7 @@
     </row>
     <row r="3251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3251" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3251" s="34" t="s">
         <v>78</v>
@@ -37009,7 +37054,7 @@
     </row>
     <row r="3252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3252" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3252" s="34" t="s">
         <v>78</v>
@@ -37020,7 +37065,7 @@
     </row>
     <row r="3253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3253" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3253" s="34" t="s">
         <v>78</v>
@@ -37031,7 +37076,7 @@
     </row>
     <row r="3254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3254" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3254" s="34" t="s">
         <v>78</v>
@@ -37042,7 +37087,7 @@
     </row>
     <row r="3255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3255" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3255" s="34" t="s">
         <v>78</v>
@@ -37053,7 +37098,7 @@
     </row>
     <row r="3256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3256" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3256" s="34" t="s">
         <v>78</v>
@@ -37064,7 +37109,7 @@
     </row>
     <row r="3257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3257" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3257" s="34" t="s">
         <v>78</v>
@@ -37075,7 +37120,7 @@
     </row>
     <row r="3258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3258" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3258" s="34" t="s">
         <v>78</v>
@@ -37086,7 +37131,7 @@
     </row>
     <row r="3259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3259" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3259" s="34" t="s">
         <v>78</v>
@@ -37097,7 +37142,7 @@
     </row>
     <row r="3260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3260" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3260" s="34" t="s">
         <v>78</v>
@@ -37108,7 +37153,7 @@
     </row>
     <row r="3261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3261" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3261" s="34" t="s">
         <v>78</v>
@@ -37119,7 +37164,7 @@
     </row>
     <row r="3262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3262" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3262" s="34" t="s">
         <v>78</v>
@@ -37130,7 +37175,7 @@
     </row>
     <row r="3263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3263" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3263" s="34" t="s">
         <v>78</v>
@@ -37141,7 +37186,7 @@
     </row>
     <row r="3264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3264" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3264" s="34" t="s">
         <v>78</v>
@@ -37152,7 +37197,7 @@
     </row>
     <row r="3265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3265" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3265" s="34" t="s">
         <v>78</v>
@@ -37163,7 +37208,7 @@
     </row>
     <row r="3266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3266" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3266" s="34" t="s">
         <v>78</v>
@@ -37174,7 +37219,7 @@
     </row>
     <row r="3267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3267" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3267" s="34" t="s">
         <v>78</v>
@@ -37185,7 +37230,7 @@
     </row>
     <row r="3268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3268" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3268" s="34" t="s">
         <v>78</v>
@@ -37196,7 +37241,7 @@
     </row>
     <row r="3269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3269" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3269" s="34" t="s">
         <v>78</v>
@@ -37207,7 +37252,7 @@
     </row>
     <row r="3270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3270" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3270" s="34" t="s">
         <v>78</v>
@@ -37218,7 +37263,7 @@
     </row>
     <row r="3271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3271" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3271" s="34" t="s">
         <v>78</v>
@@ -37229,7 +37274,7 @@
     </row>
     <row r="3272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3272" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3272" s="34" t="s">
         <v>78</v>
@@ -37240,7 +37285,7 @@
     </row>
     <row r="3273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3273" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3273" s="34" t="s">
         <v>78</v>
@@ -37251,7 +37296,7 @@
     </row>
     <row r="3274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3274" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3274" s="34" t="s">
         <v>78</v>
@@ -37262,7 +37307,7 @@
     </row>
     <row r="3275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3275" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3275" s="34" t="s">
         <v>78</v>
@@ -37273,7 +37318,7 @@
     </row>
     <row r="3276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3276" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3276" s="34" t="s">
         <v>78</v>
@@ -37284,7 +37329,7 @@
     </row>
     <row r="3277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3277" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3277" s="34" t="s">
         <v>78</v>
@@ -37295,7 +37340,7 @@
     </row>
     <row r="3278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3278" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3278" s="34" t="s">
         <v>78</v>
@@ -37306,7 +37351,7 @@
     </row>
     <row r="3279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3279" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3279" s="34" t="s">
         <v>78</v>
@@ -37317,7 +37362,7 @@
     </row>
     <row r="3280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3280" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3280" s="34" t="s">
         <v>78</v>
@@ -37328,7 +37373,7 @@
     </row>
     <row r="3281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3281" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3281" s="34" t="s">
         <v>78</v>
@@ -37339,7 +37384,7 @@
     </row>
     <row r="3282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3282" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3282" s="34" t="s">
         <v>78</v>
@@ -37350,7 +37395,7 @@
     </row>
     <row r="3283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3283" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3283" s="34" t="s">
         <v>78</v>
@@ -37361,7 +37406,7 @@
     </row>
     <row r="3284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3284" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3284" s="34" t="s">
         <v>78</v>
@@ -37372,7 +37417,7 @@
     </row>
     <row r="3285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3285" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3285" s="34" t="s">
         <v>78</v>
@@ -37383,7 +37428,7 @@
     </row>
     <row r="3286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3286" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3286" s="34" t="s">
         <v>78</v>
@@ -37394,7 +37439,7 @@
     </row>
     <row r="3287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3287" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3287" s="34" t="s">
         <v>78</v>
@@ -37405,7 +37450,7 @@
     </row>
     <row r="3288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3288" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3288" s="34" t="s">
         <v>78</v>
@@ -37416,7 +37461,7 @@
     </row>
     <row r="3289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3289" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3289" s="34" t="s">
         <v>78</v>
@@ -37427,7 +37472,7 @@
     </row>
     <row r="3290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3290" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3290" s="34" t="s">
         <v>78</v>
@@ -37438,7 +37483,7 @@
     </row>
     <row r="3291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3291" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3291" s="34" t="s">
         <v>78</v>
@@ -37449,7 +37494,7 @@
     </row>
     <row r="3292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3292" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3292" s="34" t="s">
         <v>78</v>
@@ -37460,7 +37505,7 @@
     </row>
     <row r="3293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3293" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3293" s="34" t="s">
         <v>78</v>
@@ -37471,7 +37516,7 @@
     </row>
     <row r="3294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3294" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3294" s="34" t="s">
         <v>78</v>
@@ -37482,7 +37527,7 @@
     </row>
     <row r="3295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3295" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3295" s="34" t="s">
         <v>78</v>
@@ -37493,7 +37538,7 @@
     </row>
     <row r="3296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3296" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3296" s="34" t="s">
         <v>78</v>
@@ -37504,7 +37549,7 @@
     </row>
     <row r="3297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3297" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3297" s="34" t="s">
         <v>78</v>
@@ -37515,7 +37560,7 @@
     </row>
     <row r="3298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3298" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3298" s="34" t="s">
         <v>78</v>
@@ -37526,7 +37571,7 @@
     </row>
     <row r="3299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3299" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3299" s="34" t="s">
         <v>78</v>
@@ -37537,7 +37582,7 @@
     </row>
     <row r="3300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3300" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3300" s="34" t="s">
         <v>78</v>
@@ -37548,7 +37593,7 @@
     </row>
     <row r="3301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3301" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3301" s="34" t="s">
         <v>78</v>
@@ -37559,7 +37604,7 @@
     </row>
     <row r="3302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3302" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3302" s="34" t="s">
         <v>78</v>
@@ -37570,7 +37615,7 @@
     </row>
     <row r="3303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3303" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3303" s="34" t="s">
         <v>78</v>
@@ -37581,7 +37626,7 @@
     </row>
     <row r="3304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3304" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3304" s="34" t="s">
         <v>78</v>
@@ -37592,7 +37637,7 @@
     </row>
     <row r="3305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3305" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3305" s="34" t="s">
         <v>78</v>
@@ -37603,7 +37648,7 @@
     </row>
     <row r="3306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3306" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3306" s="34" t="s">
         <v>78</v>
@@ -37614,7 +37659,7 @@
     </row>
     <row r="3307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3307" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3307" s="34" t="s">
         <v>78</v>
@@ -37625,7 +37670,7 @@
     </row>
     <row r="3308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3308" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3308" s="34" t="s">
         <v>78</v>
@@ -37636,7 +37681,7 @@
     </row>
     <row r="3309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3309" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3309" s="34" t="s">
         <v>78</v>
@@ -37647,7 +37692,7 @@
     </row>
     <row r="3310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3310" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3310" s="34" t="s">
         <v>78</v>
@@ -37658,7 +37703,7 @@
     </row>
     <row r="3311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3311" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3311" s="34" t="s">
         <v>78</v>
@@ -37669,7 +37714,7 @@
     </row>
     <row r="3312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3312" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3312" s="34" t="s">
         <v>78</v>
@@ -37680,7 +37725,7 @@
     </row>
     <row r="3313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3313" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3313" s="34" t="s">
         <v>78</v>
@@ -37691,7 +37736,7 @@
     </row>
     <row r="3314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3314" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3314" s="34" t="s">
         <v>78</v>
@@ -37702,7 +37747,7 @@
     </row>
     <row r="3315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3315" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3315" s="34" t="s">
         <v>78</v>
@@ -37713,7 +37758,7 @@
     </row>
     <row r="3316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3316" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3316" s="34" t="s">
         <v>78</v>
@@ -37724,7 +37769,7 @@
     </row>
     <row r="3317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3317" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3317" s="34" t="s">
         <v>78</v>
@@ -37735,7 +37780,7 @@
     </row>
     <row r="3318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3318" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3318" s="34" t="s">
         <v>78</v>
@@ -37746,7 +37791,7 @@
     </row>
     <row r="3319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3319" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3319" s="34" t="s">
         <v>78</v>
@@ -37757,7 +37802,7 @@
     </row>
     <row r="3320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3320" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3320" s="34" t="s">
         <v>78</v>
@@ -37768,7 +37813,7 @@
     </row>
     <row r="3321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3321" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3321" s="34" t="s">
         <v>78</v>
@@ -37779,7 +37824,7 @@
     </row>
     <row r="3322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3322" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3322" s="34" t="s">
         <v>78</v>
@@ -37790,7 +37835,7 @@
     </row>
     <row r="3323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3323" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3323" s="34" t="s">
         <v>78</v>
@@ -37801,7 +37846,7 @@
     </row>
     <row r="3324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3324" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3324" s="34" t="s">
         <v>78</v>
@@ -37812,7 +37857,7 @@
     </row>
     <row r="3325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3325" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3325" s="34" t="s">
         <v>78</v>
@@ -37823,7 +37868,7 @@
     </row>
     <row r="3326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3326" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3326" s="34" t="s">
         <v>78</v>
@@ -37834,7 +37879,7 @@
     </row>
     <row r="3327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3327" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3327" s="34" t="s">
         <v>78</v>
@@ -37845,7 +37890,7 @@
     </row>
     <row r="3328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3328" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3328" s="34" t="s">
         <v>78</v>
@@ -37856,7 +37901,7 @@
     </row>
     <row r="3329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3329" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3329" s="34" t="s">
         <v>78</v>
@@ -37867,7 +37912,7 @@
     </row>
     <row r="3330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3330" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3330" s="34" t="s">
         <v>78</v>
@@ -37878,7 +37923,7 @@
     </row>
     <row r="3331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3331" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3331" s="34" t="s">
         <v>78</v>
@@ -37889,7 +37934,7 @@
     </row>
     <row r="3332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3332" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3332" s="34" t="s">
         <v>78</v>
@@ -37900,7 +37945,7 @@
     </row>
     <row r="3333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3333" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3333" s="34" t="s">
         <v>78</v>
@@ -37911,7 +37956,7 @@
     </row>
     <row r="3334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3334" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3334" s="34" t="s">
         <v>78</v>
@@ -37922,7 +37967,7 @@
     </row>
     <row r="3335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3335" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3335" s="34" t="s">
         <v>78</v>
@@ -37933,7 +37978,7 @@
     </row>
     <row r="3336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3336" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3336" s="34" t="s">
         <v>78</v>
@@ -37944,7 +37989,7 @@
     </row>
     <row r="3337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3337" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3337" s="34" t="s">
         <v>78</v>
@@ -37955,7 +38000,7 @@
     </row>
     <row r="3338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3338" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3338" s="34" t="s">
         <v>78</v>
@@ -37966,7 +38011,7 @@
     </row>
     <row r="3339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3339" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3339" s="34" t="s">
         <v>78</v>
@@ -37977,7 +38022,7 @@
     </row>
     <row r="3340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3340" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3340" s="34" t="s">
         <v>78</v>
@@ -37988,7 +38033,7 @@
     </row>
     <row r="3341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3341" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3341" s="34" t="s">
         <v>78</v>
@@ -37999,7 +38044,7 @@
     </row>
     <row r="3342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3342" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3342" s="34" t="s">
         <v>78</v>
@@ -38010,7 +38055,7 @@
     </row>
     <row r="3343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3343" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3343" s="34" t="s">
         <v>78</v>
@@ -38021,7 +38066,7 @@
     </row>
     <row r="3344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3344" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3344" s="34" t="s">
         <v>78</v>
@@ -38032,7 +38077,7 @@
     </row>
     <row r="3345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3345" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3345" s="34" t="s">
         <v>78</v>
@@ -38043,7 +38088,7 @@
     </row>
     <row r="3346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3346" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3346" s="34" t="s">
         <v>78</v>
@@ -38054,7 +38099,7 @@
     </row>
     <row r="3347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3347" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3347" s="34" t="s">
         <v>78</v>
@@ -38065,7 +38110,7 @@
     </row>
     <row r="3348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3348" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3348" s="34" t="s">
         <v>78</v>
@@ -38076,7 +38121,7 @@
     </row>
     <row r="3349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3349" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3349" s="34" t="s">
         <v>78</v>
@@ -38087,7 +38132,7 @@
     </row>
     <row r="3350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3350" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3350" s="34" t="s">
         <v>78</v>
@@ -38098,7 +38143,7 @@
     </row>
     <row r="3351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3351" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3351" s="34" t="s">
         <v>78</v>
@@ -38109,7 +38154,7 @@
     </row>
     <row r="3352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3352" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3352" s="34" t="s">
         <v>78</v>
@@ -38120,7 +38165,7 @@
     </row>
     <row r="3353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3353" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3353" s="34" t="s">
         <v>78</v>
@@ -38131,7 +38176,7 @@
     </row>
     <row r="3354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3354" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3354" s="34" t="s">
         <v>78</v>
@@ -38142,7 +38187,7 @@
     </row>
     <row r="3355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3355" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3355" s="34" t="s">
         <v>78</v>
@@ -38153,7 +38198,7 @@
     </row>
     <row r="3356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3356" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3356" s="34" t="s">
         <v>78</v>
@@ -38164,7 +38209,7 @@
     </row>
     <row r="3357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3357" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3357" s="34" t="s">
         <v>78</v>
@@ -38175,7 +38220,7 @@
     </row>
     <row r="3358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3358" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3358" s="34" t="s">
         <v>78</v>
@@ -38186,7 +38231,7 @@
     </row>
     <row r="3359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3359" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3359" s="34" t="s">
         <v>78</v>
@@ -38197,7 +38242,7 @@
     </row>
     <row r="3360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3360" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3360" s="34" t="s">
         <v>78</v>
@@ -38208,7 +38253,7 @@
     </row>
     <row r="3361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3361" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3361" s="34" t="s">
         <v>78</v>
@@ -38219,7 +38264,7 @@
     </row>
     <row r="3362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3362" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3362" s="34" t="s">
         <v>78</v>
@@ -38230,7 +38275,7 @@
     </row>
     <row r="3363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3363" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3363" s="34" t="s">
         <v>78</v>
@@ -38241,7 +38286,7 @@
     </row>
     <row r="3364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3364" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3364" s="34" t="s">
         <v>78</v>
@@ -38252,7 +38297,7 @@
     </row>
     <row r="3365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3365" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3365" s="34" t="s">
         <v>78</v>
@@ -38263,7 +38308,7 @@
     </row>
     <row r="3366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3366" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3366" s="34" t="s">
         <v>78</v>
@@ -38274,7 +38319,7 @@
     </row>
     <row r="3367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3367" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3367" s="34" t="s">
         <v>78</v>
@@ -38285,7 +38330,7 @@
     </row>
     <row r="3368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3368" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3368" s="34" t="s">
         <v>78</v>
@@ -38296,7 +38341,7 @@
     </row>
     <row r="3369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3369" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3369" s="34" t="s">
         <v>78</v>
@@ -38307,7 +38352,7 @@
     </row>
     <row r="3370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3370" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3370" s="34" t="s">
         <v>78</v>
@@ -38318,7 +38363,7 @@
     </row>
     <row r="3371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3371" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3371" s="34" t="s">
         <v>78</v>
@@ -38329,7 +38374,7 @@
     </row>
     <row r="3372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3372" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3372" s="34" t="s">
         <v>78</v>
@@ -38340,7 +38385,7 @@
     </row>
     <row r="3373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3373" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3373" s="34" t="s">
         <v>78</v>
@@ -38351,7 +38396,7 @@
     </row>
     <row r="3374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3374" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3374" s="34" t="s">
         <v>78</v>
@@ -38362,7 +38407,7 @@
     </row>
     <row r="3375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3375" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3375" s="34" t="s">
         <v>78</v>
@@ -38373,7 +38418,7 @@
     </row>
     <row r="3376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3376" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3376" s="34" t="s">
         <v>78</v>
@@ -38384,7 +38429,7 @@
     </row>
     <row r="3377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3377" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3377" s="34" t="s">
         <v>78</v>
@@ -38395,7 +38440,7 @@
     </row>
     <row r="3378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3378" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3378" s="34" t="s">
         <v>78</v>
@@ -38406,7 +38451,7 @@
     </row>
     <row r="3379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3379" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3379" s="34" t="s">
         <v>78</v>
@@ -38417,7 +38462,7 @@
     </row>
     <row r="3380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3380" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3380" s="34" t="s">
         <v>78</v>
@@ -38428,7 +38473,7 @@
     </row>
     <row r="3381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3381" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3381" s="34" t="s">
         <v>78</v>
@@ -38439,7 +38484,7 @@
     </row>
     <row r="3382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3382" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3382" s="34" t="s">
         <v>78</v>
@@ -38450,7 +38495,7 @@
     </row>
     <row r="3383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3383" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3383" s="34" t="s">
         <v>78</v>
@@ -38461,7 +38506,7 @@
     </row>
     <row r="3384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3384" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3384" s="34" t="s">
         <v>78</v>
@@ -38472,7 +38517,7 @@
     </row>
     <row r="3385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3385" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3385" s="34" t="s">
         <v>78</v>
@@ -38483,7 +38528,7 @@
     </row>
     <row r="3386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3386" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3386" s="34" t="s">
         <v>78</v>
@@ -38494,7 +38539,7 @@
     </row>
     <row r="3387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3387" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3387" s="34" t="s">
         <v>78</v>
@@ -38505,7 +38550,7 @@
     </row>
     <row r="3388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3388" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3388" s="34" t="s">
         <v>78</v>
@@ -38516,7 +38561,7 @@
     </row>
     <row r="3389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3389" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3389" s="34" t="s">
         <v>78</v>
@@ -38527,7 +38572,7 @@
     </row>
     <row r="3390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3390" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3390" s="34" t="s">
         <v>78</v>
@@ -38538,7 +38583,7 @@
     </row>
     <row r="3391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3391" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3391" s="34" t="s">
         <v>78</v>
@@ -38549,7 +38594,7 @@
     </row>
     <row r="3392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3392" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3392" s="34" t="s">
         <v>78</v>
@@ -38560,7 +38605,7 @@
     </row>
     <row r="3393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3393" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3393" s="34" t="s">
         <v>78</v>
@@ -38571,7 +38616,7 @@
     </row>
     <row r="3394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3394" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3394" s="34" t="s">
         <v>78</v>
@@ -38582,7 +38627,7 @@
     </row>
     <row r="3395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3395" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3395" s="34" t="s">
         <v>78</v>
@@ -38593,7 +38638,7 @@
     </row>
     <row r="3396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3396" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3396" s="34" t="s">
         <v>78</v>
@@ -38604,7 +38649,7 @@
     </row>
     <row r="3397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3397" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3397" s="34" t="s">
         <v>78</v>
@@ -38615,7 +38660,7 @@
     </row>
     <row r="3398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3398" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3398" s="34" t="s">
         <v>78</v>
@@ -38626,7 +38671,7 @@
     </row>
     <row r="3399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3399" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3399" s="34" t="s">
         <v>78</v>
@@ -38637,7 +38682,7 @@
     </row>
     <row r="3400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3400" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3400" s="34" t="s">
         <v>78</v>
@@ -38648,7 +38693,7 @@
     </row>
     <row r="3401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3401" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3401" s="34" t="s">
         <v>78</v>
@@ -38659,7 +38704,7 @@
     </row>
     <row r="3402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3402" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3402" s="34" t="s">
         <v>78</v>
@@ -38670,7 +38715,7 @@
     </row>
     <row r="3403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3403" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3403" s="34" t="s">
         <v>78</v>
@@ -38681,7 +38726,7 @@
     </row>
     <row r="3404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3404" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3404" s="34" t="s">
         <v>78</v>
@@ -38692,7 +38737,7 @@
     </row>
     <row r="3405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3405" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3405" s="34" t="s">
         <v>78</v>
@@ -38703,7 +38748,7 @@
     </row>
     <row r="3406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3406" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3406" s="34" t="s">
         <v>78</v>
@@ -38714,7 +38759,7 @@
     </row>
     <row r="3407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3407" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3407" s="34" t="s">
         <v>78</v>
@@ -38725,7 +38770,7 @@
     </row>
     <row r="3408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3408" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3408" s="34" t="s">
         <v>78</v>
@@ -38736,7 +38781,7 @@
     </row>
     <row r="3409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3409" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3409" s="34" t="s">
         <v>78</v>
@@ -38747,7 +38792,7 @@
     </row>
     <row r="3410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3410" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3410" s="34" t="s">
         <v>78</v>
@@ -38758,7 +38803,7 @@
     </row>
     <row r="3411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3411" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3411" s="34" t="s">
         <v>78</v>
@@ -38769,7 +38814,7 @@
     </row>
     <row r="3412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3412" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3412" s="34" t="s">
         <v>78</v>
@@ -38780,7 +38825,7 @@
     </row>
     <row r="3413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3413" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3413" s="34" t="s">
         <v>78</v>
@@ -38791,7 +38836,7 @@
     </row>
     <row r="3414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3414" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3414" s="34" t="s">
         <v>78</v>
@@ -38802,7 +38847,7 @@
     </row>
     <row r="3415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3415" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3415" s="34" t="s">
         <v>78</v>
@@ -38813,7 +38858,7 @@
     </row>
     <row r="3416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3416" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3416" s="34" t="s">
         <v>78</v>
@@ -38824,7 +38869,7 @@
     </row>
     <row r="3417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3417" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3417" s="34" t="s">
         <v>78</v>
@@ -38835,7 +38880,7 @@
     </row>
     <row r="3418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3418" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3418" s="34" t="s">
         <v>78</v>
@@ -38846,7 +38891,7 @@
     </row>
     <row r="3419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3419" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3419" s="34" t="s">
         <v>78</v>
@@ -38857,7 +38902,7 @@
     </row>
     <row r="3420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3420" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3420" s="34" t="s">
         <v>78</v>
@@ -38868,7 +38913,7 @@
     </row>
     <row r="3421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3421" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3421" s="34" t="s">
         <v>78</v>
@@ -38879,7 +38924,7 @@
     </row>
     <row r="3422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3422" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3422" s="34" t="s">
         <v>78</v>
@@ -38890,7 +38935,7 @@
     </row>
     <row r="3423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3423" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3423" s="34" t="s">
         <v>78</v>
@@ -38901,7 +38946,7 @@
     </row>
     <row r="3424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3424" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3424" s="34" t="s">
         <v>78</v>
@@ -38912,7 +38957,7 @@
     </row>
     <row r="3425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3425" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3425" s="34" t="s">
         <v>78</v>
@@ -38923,7 +38968,7 @@
     </row>
     <row r="3426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3426" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3426" s="34" t="s">
         <v>78</v>
@@ -38934,7 +38979,7 @@
     </row>
     <row r="3427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3427" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3427" s="34" t="s">
         <v>78</v>
@@ -38945,7 +38990,7 @@
     </row>
     <row r="3428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3428" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3428" s="34" t="s">
         <v>78</v>
@@ -38956,7 +39001,7 @@
     </row>
     <row r="3429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3429" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3429" s="34" t="s">
         <v>78</v>
@@ -38967,7 +39012,7 @@
     </row>
     <row r="3430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3430" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3430" s="34" t="s">
         <v>78</v>
@@ -38978,7 +39023,7 @@
     </row>
     <row r="3431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3431" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3431" s="34" t="s">
         <v>78</v>
@@ -38989,7 +39034,7 @@
     </row>
     <row r="3432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3432" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3432" s="34" t="s">
         <v>78</v>
@@ -39000,7 +39045,7 @@
     </row>
     <row r="3433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3433" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3433" s="34" t="s">
         <v>78</v>
@@ -39011,7 +39056,7 @@
     </row>
     <row r="3434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3434" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3434" s="34" t="s">
         <v>78</v>
@@ -39022,7 +39067,7 @@
     </row>
     <row r="3435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3435" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3435" s="34" t="s">
         <v>78</v>
@@ -39033,7 +39078,7 @@
     </row>
     <row r="3436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3436" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3436" s="34" t="s">
         <v>78</v>
@@ -39044,7 +39089,7 @@
     </row>
     <row r="3437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3437" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3437" s="34" t="s">
         <v>78</v>
@@ -39055,7 +39100,7 @@
     </row>
     <row r="3438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3438" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3438" s="34" t="s">
         <v>78</v>
@@ -39066,7 +39111,7 @@
     </row>
     <row r="3439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3439" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3439" s="34" t="s">
         <v>78</v>
@@ -39077,7 +39122,7 @@
     </row>
     <row r="3440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3440" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3440" s="34" t="s">
         <v>78</v>
@@ -39088,7 +39133,7 @@
     </row>
     <row r="3441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3441" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3441" s="34" t="s">
         <v>78</v>
@@ -39099,7 +39144,7 @@
     </row>
     <row r="3442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3442" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3442" s="34" t="s">
         <v>78</v>
@@ -39110,7 +39155,7 @@
     </row>
     <row r="3443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3443" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3443" s="34" t="s">
         <v>78</v>
@@ -39121,7 +39166,7 @@
     </row>
     <row r="3444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3444" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3444" s="34" t="s">
         <v>78</v>
@@ -39132,7 +39177,7 @@
     </row>
     <row r="3445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3445" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3445" s="34" t="s">
         <v>78</v>
@@ -39143,7 +39188,7 @@
     </row>
     <row r="3446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3446" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3446" s="34" t="s">
         <v>78</v>
@@ -39154,7 +39199,7 @@
     </row>
     <row r="3447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3447" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3447" s="34" t="s">
         <v>78</v>
@@ -39165,7 +39210,7 @@
     </row>
     <row r="3448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3448" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3448" s="34" t="s">
         <v>78</v>
@@ -39176,7 +39221,7 @@
     </row>
     <row r="3449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3449" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3449" s="34" t="s">
         <v>78</v>
@@ -39187,7 +39232,7 @@
     </row>
     <row r="3450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3450" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3450" s="34" t="s">
         <v>78</v>
@@ -39198,7 +39243,7 @@
     </row>
     <row r="3451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3451" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3451" s="34" t="s">
         <v>78</v>
@@ -39209,7 +39254,7 @@
     </row>
     <row r="3452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3452" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3452" s="34" t="s">
         <v>78</v>
@@ -39220,7 +39265,7 @@
     </row>
     <row r="3453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3453" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3453" s="34" t="s">
         <v>78</v>
@@ -39231,7 +39276,7 @@
     </row>
     <row r="3454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3454" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3454" s="34" t="s">
         <v>78</v>
@@ -39242,7 +39287,7 @@
     </row>
     <row r="3455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3455" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3455" s="34" t="s">
         <v>78</v>
@@ -39253,7 +39298,7 @@
     </row>
     <row r="3456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3456" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3456" s="34" t="s">
         <v>78</v>
@@ -39264,7 +39309,7 @@
     </row>
     <row r="3457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3457" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3457" s="34" t="s">
         <v>78</v>
@@ -39275,7 +39320,7 @@
     </row>
     <row r="3458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3458" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3458" s="34" t="s">
         <v>78</v>
@@ -39286,7 +39331,7 @@
     </row>
     <row r="3459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3459" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3459" s="34" t="s">
         <v>78</v>
@@ -39297,7 +39342,7 @@
     </row>
     <row r="3460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3460" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3460" s="34" t="s">
         <v>78</v>
@@ -39308,7 +39353,7 @@
     </row>
     <row r="3461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3461" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3461" s="34" t="s">
         <v>78</v>
@@ -39319,7 +39364,7 @@
     </row>
     <row r="3462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3462" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3462" s="34" t="s">
         <v>78</v>
@@ -39330,7 +39375,7 @@
     </row>
     <row r="3463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3463" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3463" s="34" t="s">
         <v>78</v>
@@ -39341,7 +39386,7 @@
     </row>
     <row r="3464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3464" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3464" s="34" t="s">
         <v>78</v>
@@ -39352,7 +39397,7 @@
     </row>
     <row r="3465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3465" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3465" s="34" t="s">
         <v>78</v>
@@ -39363,7 +39408,7 @@
     </row>
     <row r="3466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3466" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3466" s="34" t="s">
         <v>78</v>
@@ -39374,7 +39419,7 @@
     </row>
     <row r="3467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3467" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3467" s="34" t="s">
         <v>78</v>
@@ -39385,7 +39430,7 @@
     </row>
     <row r="3468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3468" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3468" s="34" t="s">
         <v>78</v>
@@ -39396,7 +39441,7 @@
     </row>
     <row r="3469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3469" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3469" s="34" t="s">
         <v>78</v>
@@ -39407,7 +39452,7 @@
     </row>
     <row r="3470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3470" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3470" s="34" t="s">
         <v>78</v>
@@ -39418,7 +39463,7 @@
     </row>
     <row r="3471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3471" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3471" s="34" t="s">
         <v>78</v>
@@ -39429,7 +39474,7 @@
     </row>
     <row r="3472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3472" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3472" s="34" t="s">
         <v>78</v>
@@ -39440,7 +39485,7 @@
     </row>
     <row r="3473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3473" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3473" s="34" t="s">
         <v>78</v>
@@ -39451,7 +39496,7 @@
     </row>
     <row r="3474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3474" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3474" s="34" t="s">
         <v>78</v>
@@ -39462,7 +39507,7 @@
     </row>
     <row r="3475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3475" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3475" s="34" t="s">
         <v>78</v>
@@ -39473,7 +39518,7 @@
     </row>
     <row r="3476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3476" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3476" s="34" t="s">
         <v>78</v>
@@ -39484,7 +39529,7 @@
     </row>
     <row r="3477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3477" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3477" s="34" t="s">
         <v>78</v>
@@ -39495,7 +39540,7 @@
     </row>
     <row r="3478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3478" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3478" s="34" t="s">
         <v>78</v>
@@ -39506,7 +39551,7 @@
     </row>
     <row r="3479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3479" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3479" s="34" t="s">
         <v>78</v>
@@ -39517,7 +39562,7 @@
     </row>
     <row r="3480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3480" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3480" s="34" t="s">
         <v>78</v>
@@ -39528,7 +39573,7 @@
     </row>
     <row r="3481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3481" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3481" s="34" t="s">
         <v>78</v>
@@ -39539,7 +39584,7 @@
     </row>
     <row r="3482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3482" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3482" s="34" t="s">
         <v>78</v>
@@ -39550,7 +39595,7 @@
     </row>
     <row r="3483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3483" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3483" s="34" t="s">
         <v>78</v>
@@ -39561,7 +39606,7 @@
     </row>
     <row r="3484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3484" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3484" s="34" t="s">
         <v>78</v>
@@ -39572,7 +39617,7 @@
     </row>
     <row r="3485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3485" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3485" s="34" t="s">
         <v>78</v>
@@ -39583,7 +39628,7 @@
     </row>
     <row r="3486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3486" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3486" s="34" t="s">
         <v>78</v>
@@ -39594,7 +39639,7 @@
     </row>
     <row r="3487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3487" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3487" s="34" t="s">
         <v>78</v>
@@ -39605,7 +39650,7 @@
     </row>
     <row r="3488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3488" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3488" s="34" t="s">
         <v>78</v>
@@ -39616,7 +39661,7 @@
     </row>
     <row r="3489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3489" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3489" s="34" t="s">
         <v>78</v>
@@ -39627,7 +39672,7 @@
     </row>
     <row r="3490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3490" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3490" s="34" t="s">
         <v>78</v>
@@ -39638,7 +39683,7 @@
     </row>
     <row r="3491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3491" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3491" s="34" t="s">
         <v>78</v>
@@ -39649,7 +39694,7 @@
     </row>
     <row r="3492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3492" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3492" s="34" t="s">
         <v>78</v>
@@ -39660,7 +39705,7 @@
     </row>
     <row r="3493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3493" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3493" s="34" t="s">
         <v>78</v>
@@ -39671,7 +39716,7 @@
     </row>
     <row r="3494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3494" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3494" s="34" t="s">
         <v>78</v>
@@ -39682,7 +39727,7 @@
     </row>
     <row r="3495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3495" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3495" s="34" t="s">
         <v>78</v>
@@ -39693,7 +39738,7 @@
     </row>
     <row r="3496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3496" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3496" s="34" t="s">
         <v>78</v>
@@ -39704,7 +39749,7 @@
     </row>
     <row r="3497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3497" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3497" s="34" t="s">
         <v>78</v>
@@ -39715,7 +39760,7 @@
     </row>
     <row r="3498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3498" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3498" s="34" t="s">
         <v>78</v>
@@ -39726,7 +39771,7 @@
     </row>
     <row r="3499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3499" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3499" s="34" t="s">
         <v>78</v>
@@ -39737,7 +39782,7 @@
     </row>
     <row r="3500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3500" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3500" s="34" t="s">
         <v>78</v>
@@ -39748,7 +39793,7 @@
     </row>
     <row r="3501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3501" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3501" s="34" t="s">
         <v>78</v>
@@ -39759,7 +39804,7 @@
     </row>
     <row r="3502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3502" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3502" s="34" t="s">
         <v>78</v>
@@ -39770,7 +39815,7 @@
     </row>
     <row r="3503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3503" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3503" s="34" t="s">
         <v>78</v>
@@ -39781,7 +39826,7 @@
     </row>
     <row r="3504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3504" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3504" s="34" t="s">
         <v>78</v>
@@ -39792,7 +39837,7 @@
     </row>
     <row r="3505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3505" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3505" s="34" t="s">
         <v>78</v>
@@ -39803,7 +39848,7 @@
     </row>
     <row r="3506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3506" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3506" s="34" t="s">
         <v>78</v>
@@ -39814,7 +39859,7 @@
     </row>
     <row r="3507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3507" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3507" s="34" t="s">
         <v>78</v>
@@ -39825,7 +39870,7 @@
     </row>
     <row r="3508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3508" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3508" s="34" t="s">
         <v>78</v>
@@ -39836,7 +39881,7 @@
     </row>
     <row r="3509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3509" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3509" s="34" t="s">
         <v>78</v>
@@ -39847,7 +39892,7 @@
     </row>
     <row r="3510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3510" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3510" s="34" t="s">
         <v>78</v>
@@ -39858,7 +39903,7 @@
     </row>
     <row r="3511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3511" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3511" s="34" t="s">
         <v>78</v>
@@ -39869,7 +39914,7 @@
     </row>
     <row r="3512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3512" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3512" s="34" t="s">
         <v>78</v>
@@ -39880,7 +39925,7 @@
     </row>
     <row r="3513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3513" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3513" s="34" t="s">
         <v>78</v>
@@ -39891,7 +39936,7 @@
     </row>
     <row r="3514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3514" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3514" s="34" t="s">
         <v>78</v>
@@ -39902,7 +39947,7 @@
     </row>
     <row r="3515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3515" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3515" s="34" t="s">
         <v>78</v>
@@ -39913,7 +39958,7 @@
     </row>
     <row r="3516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3516" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3516" s="34" t="s">
         <v>78</v>
@@ -39924,7 +39969,7 @@
     </row>
     <row r="3517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3517" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3517" s="34" t="s">
         <v>78</v>
@@ -39935,7 +39980,7 @@
     </row>
     <row r="3518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3518" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3518" s="34" t="s">
         <v>78</v>
@@ -39946,7 +39991,7 @@
     </row>
     <row r="3519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3519" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3519" s="34" t="s">
         <v>78</v>
@@ -39957,7 +40002,7 @@
     </row>
     <row r="3520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3520" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3520" s="34" t="s">
         <v>78</v>
@@ -39968,7 +40013,7 @@
     </row>
     <row r="3521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3521" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3521" s="34" t="s">
         <v>78</v>
@@ -39979,7 +40024,7 @@
     </row>
     <row r="3522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3522" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3522" s="34" t="s">
         <v>78</v>
@@ -39990,7 +40035,7 @@
     </row>
     <row r="3523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3523" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3523" s="34" t="s">
         <v>78</v>
@@ -40001,7 +40046,7 @@
     </row>
     <row r="3524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3524" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3524" s="34" t="s">
         <v>78</v>
@@ -40012,7 +40057,7 @@
     </row>
     <row r="3525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3525" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3525" s="34" t="s">
         <v>78</v>
@@ -40023,7 +40068,7 @@
     </row>
     <row r="3526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3526" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3526" s="34" t="s">
         <v>78</v>
@@ -40034,7 +40079,7 @@
     </row>
     <row r="3527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3527" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3527" s="34" t="s">
         <v>78</v>
@@ -40045,7 +40090,7 @@
     </row>
     <row r="3528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3528" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3528" s="34" t="s">
         <v>78</v>
@@ -40056,7 +40101,7 @@
     </row>
     <row r="3529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3529" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3529" s="34" t="s">
         <v>78</v>
@@ -40067,7 +40112,7 @@
     </row>
     <row r="3530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3530" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3530" s="34" t="s">
         <v>78</v>
@@ -40078,7 +40123,7 @@
     </row>
     <row r="3531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3531" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3531" s="34" t="s">
         <v>78</v>
@@ -40089,7 +40134,7 @@
     </row>
     <row r="3532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3532" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3532" s="34" t="s">
         <v>78</v>
@@ -40100,7 +40145,7 @@
     </row>
     <row r="3533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3533" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3533" s="34" t="s">
         <v>78</v>
@@ -40111,7 +40156,7 @@
     </row>
     <row r="3534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3534" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3534" s="34" t="s">
         <v>78</v>
@@ -40122,7 +40167,7 @@
     </row>
     <row r="3535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3535" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3535" s="34" t="s">
         <v>78</v>
@@ -40133,7 +40178,7 @@
     </row>
     <row r="3536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3536" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3536" s="34" t="s">
         <v>78</v>
@@ -40144,7 +40189,7 @@
     </row>
     <row r="3537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3537" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3537" s="34" t="s">
         <v>78</v>
@@ -40155,7 +40200,7 @@
     </row>
     <row r="3538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3538" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3538" s="34" t="s">
         <v>78</v>
@@ -40166,7 +40211,7 @@
     </row>
     <row r="3539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3539" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3539" s="34" t="s">
         <v>78</v>
@@ -40177,7 +40222,7 @@
     </row>
     <row r="3540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3540" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3540" s="34" t="s">
         <v>78</v>
@@ -40188,7 +40233,7 @@
     </row>
     <row r="3541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3541" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3541" s="34" t="s">
         <v>78</v>
@@ -40199,7 +40244,7 @@
     </row>
     <row r="3542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3542" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3542" s="34" t="s">
         <v>78</v>
@@ -40210,7 +40255,7 @@
     </row>
     <row r="3543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3543" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3543" s="34" t="s">
         <v>78</v>
@@ -40221,7 +40266,7 @@
     </row>
     <row r="3544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3544" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3544" s="34" t="s">
         <v>78</v>
@@ -40232,7 +40277,7 @@
     </row>
     <row r="3545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3545" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3545" s="34" t="s">
         <v>78</v>
@@ -40243,7 +40288,7 @@
     </row>
     <row r="3546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3546" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3546" s="34" t="s">
         <v>78</v>
@@ -40254,7 +40299,7 @@
     </row>
     <row r="3547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3547" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3547" s="34" t="s">
         <v>78</v>
@@ -40265,7 +40310,7 @@
     </row>
     <row r="3548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3548" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3548" s="34" t="s">
         <v>78</v>
@@ -40276,7 +40321,7 @@
     </row>
     <row r="3549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3549" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3549" s="34" t="s">
         <v>78</v>
@@ -40287,7 +40332,7 @@
     </row>
     <row r="3550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3550" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3550" s="34" t="s">
         <v>78</v>
@@ -40298,7 +40343,7 @@
     </row>
     <row r="3551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3551" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3551" s="34" t="s">
         <v>78</v>
@@ -40309,7 +40354,7 @@
     </row>
     <row r="3552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3552" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3552" s="34" t="s">
         <v>78</v>
@@ -40320,7 +40365,7 @@
     </row>
     <row r="3553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3553" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3553" s="34" t="s">
         <v>78</v>
@@ -40331,7 +40376,7 @@
     </row>
     <row r="3554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3554" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3554" s="34" t="s">
         <v>78</v>
@@ -40342,7 +40387,7 @@
     </row>
     <row r="3555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3555" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3555" s="34" t="s">
         <v>78</v>
@@ -40353,7 +40398,7 @@
     </row>
     <row r="3556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3556" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3556" s="34" t="s">
         <v>78</v>
@@ -40364,7 +40409,7 @@
     </row>
     <row r="3557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3557" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3557" s="34" t="s">
         <v>78</v>
@@ -40375,7 +40420,7 @@
     </row>
     <row r="3558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3558" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3558" s="34" t="s">
         <v>78</v>
@@ -40386,7 +40431,7 @@
     </row>
     <row r="3559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3559" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3559" s="34" t="s">
         <v>78</v>
@@ -40397,7 +40442,7 @@
     </row>
     <row r="3560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3560" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3560" s="34" t="s">
         <v>78</v>
@@ -40408,7 +40453,7 @@
     </row>
     <row r="3561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3561" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3561" s="34" t="s">
         <v>78</v>
@@ -40419,7 +40464,7 @@
     </row>
     <row r="3562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3562" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3562" s="34" t="s">
         <v>78</v>
@@ -40430,7 +40475,7 @@
     </row>
     <row r="3563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3563" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3563" s="34" t="s">
         <v>78</v>
@@ -40441,7 +40486,7 @@
     </row>
     <row r="3564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3564" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3564" s="34" t="s">
         <v>78</v>
@@ -40452,7 +40497,7 @@
     </row>
     <row r="3565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3565" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3565" s="34" t="s">
         <v>78</v>
@@ -40463,7 +40508,7 @@
     </row>
     <row r="3566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3566" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3566" s="34" t="s">
         <v>78</v>
@@ -40474,7 +40519,7 @@
     </row>
     <row r="3567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3567" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3567" s="34" t="s">
         <v>78</v>
@@ -40485,7 +40530,7 @@
     </row>
     <row r="3568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3568" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3568" s="34" t="s">
         <v>78</v>
@@ -40496,7 +40541,7 @@
     </row>
     <row r="3569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3569" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3569" s="34" t="s">
         <v>78</v>
@@ -40507,7 +40552,7 @@
     </row>
     <row r="3570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3570" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3570" s="34" t="s">
         <v>78</v>
@@ -40518,7 +40563,7 @@
     </row>
     <row r="3571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3571" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3571" s="34" t="s">
         <v>78</v>
@@ -40529,7 +40574,7 @@
     </row>
     <row r="3572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3572" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3572" s="34" t="s">
         <v>78</v>
@@ -40540,7 +40585,7 @@
     </row>
     <row r="3573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3573" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3573" s="34" t="s">
         <v>78</v>
@@ -40551,7 +40596,7 @@
     </row>
     <row r="3574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3574" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3574" s="34" t="s">
         <v>78</v>
@@ -40562,7 +40607,7 @@
     </row>
     <row r="3575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3575" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3575" s="34" t="s">
         <v>78</v>
@@ -40573,7 +40618,7 @@
     </row>
     <row r="3576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3576" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3576" s="34" t="s">
         <v>78</v>
@@ -40584,7 +40629,7 @@
     </row>
     <row r="3577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3577" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3577" s="34" t="s">
         <v>78</v>
@@ -40595,7 +40640,7 @@
     </row>
     <row r="3578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3578" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3578" s="34" t="s">
         <v>78</v>
@@ -40606,7 +40651,7 @@
     </row>
     <row r="3579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3579" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3579" s="34" t="s">
         <v>78</v>
@@ -40617,7 +40662,7 @@
     </row>
     <row r="3580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3580" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3580" s="34" t="s">
         <v>78</v>
@@ -40628,7 +40673,7 @@
     </row>
     <row r="3581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3581" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3581" s="34" t="s">
         <v>78</v>
@@ -40639,7 +40684,7 @@
     </row>
     <row r="3582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3582" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3582" s="34" t="s">
         <v>78</v>
@@ -40650,7 +40695,7 @@
     </row>
     <row r="3583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3583" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3583" s="34" t="s">
         <v>78</v>
@@ -40661,7 +40706,7 @@
     </row>
     <row r="3584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3584" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3584" s="34" t="s">
         <v>78</v>
@@ -40672,7 +40717,7 @@
     </row>
     <row r="3585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3585" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3585" s="34" t="s">
         <v>78</v>
@@ -40683,7 +40728,7 @@
     </row>
     <row r="3586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3586" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3586" s="34" t="s">
         <v>78</v>
@@ -40694,7 +40739,7 @@
     </row>
     <row r="3587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3587" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3587" s="34" t="s">
         <v>78</v>
@@ -40705,7 +40750,7 @@
     </row>
     <row r="3588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3588" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3588" s="34" t="s">
         <v>78</v>
@@ -40716,7 +40761,7 @@
     </row>
     <row r="3589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3589" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3589" s="34" t="s">
         <v>78</v>
@@ -40727,7 +40772,7 @@
     </row>
     <row r="3590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3590" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3590" s="34" t="s">
         <v>78</v>
@@ -40738,7 +40783,7 @@
     </row>
     <row r="3591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3591" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3591" s="34" t="s">
         <v>78</v>
@@ -40749,7 +40794,7 @@
     </row>
     <row r="3592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3592" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3592" s="34" t="s">
         <v>78</v>
@@ -40760,7 +40805,7 @@
     </row>
     <row r="3593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3593" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3593" s="34" t="s">
         <v>78</v>
@@ -40771,7 +40816,7 @@
     </row>
     <row r="3594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3594" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3594" s="34" t="s">
         <v>78</v>
@@ -40782,7 +40827,7 @@
     </row>
     <row r="3595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3595" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3595" s="34" t="s">
         <v>78</v>
@@ -40793,7 +40838,7 @@
     </row>
     <row r="3596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3596" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3596" s="34" t="s">
         <v>78</v>
@@ -40804,7 +40849,7 @@
     </row>
     <row r="3597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3597" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3597" s="34" t="s">
         <v>78</v>
@@ -40815,7 +40860,7 @@
     </row>
     <row r="3598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3598" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3598" s="34" t="s">
         <v>78</v>
@@ -40826,7 +40871,7 @@
     </row>
     <row r="3599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3599" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3599" s="34" t="s">
         <v>78</v>
@@ -40837,7 +40882,7 @@
     </row>
     <row r="3600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3600" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3600" s="34" t="s">
         <v>78</v>
@@ -40848,7 +40893,7 @@
     </row>
     <row r="3601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3601" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3601" s="34" t="s">
         <v>78</v>
@@ -40859,7 +40904,7 @@
     </row>
     <row r="3602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3602" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3602" s="34" t="s">
         <v>78</v>
@@ -40870,7 +40915,7 @@
     </row>
     <row r="3603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3603" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3603" s="34" t="s">
         <v>78</v>
@@ -40881,7 +40926,7 @@
     </row>
     <row r="3604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3604" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3604" s="34" t="s">
         <v>78</v>
@@ -40892,7 +40937,7 @@
     </row>
     <row r="3605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3605" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3605" s="34" t="s">
         <v>78</v>
@@ -40903,7 +40948,7 @@
     </row>
     <row r="3606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3606" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3606" s="34" t="s">
         <v>78</v>
@@ -40914,7 +40959,7 @@
     </row>
     <row r="3607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3607" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3607" s="34" t="s">
         <v>78</v>
@@ -40925,7 +40970,7 @@
     </row>
     <row r="3608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3608" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3608" s="34" t="s">
         <v>78</v>
@@ -40936,7 +40981,7 @@
     </row>
     <row r="3609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3609" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3609" s="34" t="s">
         <v>78</v>
@@ -40947,7 +40992,7 @@
     </row>
     <row r="3610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3610" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3610" s="34" t="s">
         <v>78</v>
@@ -40958,7 +41003,7 @@
     </row>
     <row r="3611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3611" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3611" s="34" t="s">
         <v>78</v>
@@ -40969,7 +41014,7 @@
     </row>
     <row r="3612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3612" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3612" s="34" t="s">
         <v>78</v>
@@ -40980,7 +41025,7 @@
     </row>
     <row r="3613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3613" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3613" s="34" t="s">
         <v>78</v>
@@ -40991,7 +41036,7 @@
     </row>
     <row r="3614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3614" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3614" s="34" t="s">
         <v>78</v>
@@ -41002,7 +41047,7 @@
     </row>
     <row r="3615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3615" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3615" s="34" t="s">
         <v>78</v>
@@ -41013,7 +41058,7 @@
     </row>
     <row r="3616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3616" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3616" s="34" t="s">
         <v>78</v>
@@ -41024,7 +41069,7 @@
     </row>
     <row r="3617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3617" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3617" s="34" t="s">
         <v>78</v>
@@ -41035,7 +41080,7 @@
     </row>
     <row r="3618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3618" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3618" s="34" t="s">
         <v>78</v>
@@ -41046,7 +41091,7 @@
     </row>
     <row r="3619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3619" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3619" s="34" t="s">
         <v>78</v>
@@ -41057,7 +41102,7 @@
     </row>
     <row r="3620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3620" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3620" s="34" t="s">
         <v>78</v>
@@ -41068,7 +41113,7 @@
     </row>
     <row r="3621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3621" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3621" s="34" t="s">
         <v>78</v>
@@ -41079,7 +41124,7 @@
     </row>
     <row r="3622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3622" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3622" s="34" t="s">
         <v>78</v>
@@ -41090,7 +41135,7 @@
     </row>
     <row r="3623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3623" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3623" s="34" t="s">
         <v>78</v>
@@ -41101,7 +41146,7 @@
     </row>
     <row r="3624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3624" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3624" s="34" t="s">
         <v>78</v>
@@ -41112,7 +41157,7 @@
     </row>
     <row r="3625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3625" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3625" s="34" t="s">
         <v>78</v>
@@ -41123,7 +41168,7 @@
     </row>
     <row r="3626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3626" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3626" s="34" t="s">
         <v>78</v>
@@ -41134,7 +41179,7 @@
     </row>
     <row r="3627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3627" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3627" s="34" t="s">
         <v>78</v>
@@ -41145,7 +41190,7 @@
     </row>
     <row r="3628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3628" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3628" s="34" t="s">
         <v>78</v>
@@ -41156,7 +41201,7 @@
     </row>
     <row r="3629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3629" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3629" s="34" t="s">
         <v>78</v>
@@ -41167,7 +41212,7 @@
     </row>
     <row r="3630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3630" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3630" s="34" t="s">
         <v>78</v>
@@ -41178,7 +41223,7 @@
     </row>
     <row r="3631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3631" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3631" s="34" t="s">
         <v>78</v>
@@ -41189,7 +41234,7 @@
     </row>
     <row r="3632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3632" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3632" s="34" t="s">
         <v>78</v>
@@ -41200,7 +41245,7 @@
     </row>
     <row r="3633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3633" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3633" s="34" t="s">
         <v>78</v>
@@ -41211,7 +41256,7 @@
     </row>
     <row r="3634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3634" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3634" s="34" t="s">
         <v>78</v>
@@ -41222,7 +41267,7 @@
     </row>
     <row r="3635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3635" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3635" s="34" t="s">
         <v>78</v>
@@ -41233,7 +41278,7 @@
     </row>
     <row r="3636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3636" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3636" s="34" t="s">
         <v>78</v>
@@ -41244,7 +41289,7 @@
     </row>
     <row r="3637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3637" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3637" s="34" t="s">
         <v>78</v>
@@ -41255,7 +41300,7 @@
     </row>
     <row r="3638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3638" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3638" s="34" t="s">
         <v>78</v>
@@ -41266,7 +41311,7 @@
     </row>
     <row r="3639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3639" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3639" s="34" t="s">
         <v>78</v>
@@ -41277,7 +41322,7 @@
     </row>
     <row r="3640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3640" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3640" s="34" t="s">
         <v>78</v>
@@ -41288,7 +41333,7 @@
     </row>
     <row r="3641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3641" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3641" s="34" t="s">
         <v>78</v>
@@ -41299,7 +41344,7 @@
     </row>
     <row r="3642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3642" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3642" s="34" t="s">
         <v>78</v>
@@ -41310,7 +41355,7 @@
     </row>
     <row r="3643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3643" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3643" s="34" t="s">
         <v>78</v>
@@ -41321,7 +41366,7 @@
     </row>
     <row r="3644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3644" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3644" s="34" t="s">
         <v>78</v>
@@ -41332,7 +41377,7 @@
     </row>
     <row r="3645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3645" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3645" s="34" t="s">
         <v>78</v>
@@ -41343,7 +41388,7 @@
     </row>
     <row r="3646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3646" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3646" s="34" t="s">
         <v>78</v>
@@ -41354,7 +41399,7 @@
     </row>
     <row r="3647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3647" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3647" s="34" t="s">
         <v>78</v>
@@ -41365,7 +41410,7 @@
     </row>
     <row r="3648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3648" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3648" s="34" t="s">
         <v>78</v>
@@ -41376,7 +41421,7 @@
     </row>
     <row r="3649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3649" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3649" s="34" t="s">
         <v>78</v>
@@ -41387,7 +41432,7 @@
     </row>
     <row r="3650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3650" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3650" s="34" t="s">
         <v>78</v>
@@ -41398,7 +41443,7 @@
     </row>
     <row r="3651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3651" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3651" s="34" t="s">
         <v>78</v>
@@ -41409,7 +41454,7 @@
     </row>
     <row r="3652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3652" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3652" s="34" t="s">
         <v>78</v>
@@ -41420,7 +41465,7 @@
     </row>
     <row r="3653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3653" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3653" s="34" t="s">
         <v>78</v>
@@ -41431,7 +41476,7 @@
     </row>
     <row r="3654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3654" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3654" s="34" t="s">
         <v>78</v>
@@ -41442,7 +41487,7 @@
     </row>
     <row r="3655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3655" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3655" s="34" t="s">
         <v>78</v>
@@ -41453,7 +41498,7 @@
     </row>
     <row r="3656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3656" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3656" s="34" t="s">
         <v>78</v>
@@ -41464,7 +41509,7 @@
     </row>
     <row r="3657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3657" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3657" s="34" t="s">
         <v>78</v>
@@ -41475,7 +41520,7 @@
     </row>
     <row r="3658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3658" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3658" s="34" t="s">
         <v>78</v>
@@ -41486,7 +41531,7 @@
     </row>
     <row r="3659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3659" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3659" s="34" t="s">
         <v>78</v>
@@ -41497,7 +41542,7 @@
     </row>
     <row r="3660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3660" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3660" s="34" t="s">
         <v>78</v>
@@ -41508,7 +41553,7 @@
     </row>
     <row r="3661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3661" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3661" s="34" t="s">
         <v>78</v>
@@ -41519,7 +41564,7 @@
     </row>
     <row r="3662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3662" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3662" s="34" t="s">
         <v>78</v>
@@ -41530,7 +41575,7 @@
     </row>
     <row r="3663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3663" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3663" s="34" t="s">
         <v>78</v>
@@ -41541,7 +41586,7 @@
     </row>
     <row r="3664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3664" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3664" s="34" t="s">
         <v>78</v>
@@ -41552,7 +41597,7 @@
     </row>
     <row r="3665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3665" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3665" s="34" t="s">
         <v>78</v>
@@ -41563,7 +41608,7 @@
     </row>
     <row r="3666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3666" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3666" s="34" t="s">
         <v>78</v>
@@ -41574,7 +41619,7 @@
     </row>
     <row r="3667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3667" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3667" s="34" t="s">
         <v>78</v>
@@ -41585,7 +41630,7 @@
     </row>
     <row r="3668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3668" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3668" s="34" t="s">
         <v>78</v>
@@ -41596,7 +41641,7 @@
     </row>
     <row r="3669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3669" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3669" s="34" t="s">
         <v>78</v>
@@ -41607,7 +41652,7 @@
     </row>
     <row r="3670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3670" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3670" s="34" t="s">
         <v>78</v>
@@ -41618,7 +41663,7 @@
     </row>
     <row r="3671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3671" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3671" s="34" t="s">
         <v>78</v>
@@ -41629,7 +41674,7 @@
     </row>
     <row r="3672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3672" s="34" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B3672" s="34" t="s">
         <v>78</v>
@@ -41640,7 +41685,7 @@
     </row>
     <row r="3673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3673" s="35" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B3673" s="35" t="s">
         <v>80</v>
@@ -41651,7 +41696,7 @@
     </row>
     <row r="3674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3674" s="35" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B3674" s="35" t="s">
         <v>80</v>
@@ -41662,7 +41707,7 @@
     </row>
     <row r="3675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3675" s="35" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B3675" s="35" t="s">
         <v>80</v>
@@ -41673,7 +41718,7 @@
     </row>
     <row r="3676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3676" s="35" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B3676" s="35" t="s">
         <v>80</v>
@@ -41684,7 +41729,7 @@
     </row>
     <row r="3677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3677" s="35" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B3677" s="35" t="s">
         <v>80</v>
@@ -41695,7 +41740,7 @@
     </row>
     <row r="3678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3678" s="35" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B3678" s="35" t="s">
         <v>80</v>
@@ -41706,7 +41751,7 @@
     </row>
     <row r="3679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3679" s="35" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B3679" s="35" t="s">
         <v>80</v>
@@ -41717,7 +41762,7 @@
     </row>
     <row r="3680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3680" s="35" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B3680" s="35" t="s">
         <v>80</v>
@@ -41728,7 +41773,7 @@
     </row>
     <row r="3681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3681" s="35" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B3681" s="35" t="s">
         <v>80</v>
@@ -41739,7 +41784,7 @@
     </row>
     <row r="3682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3682" s="35" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B3682" s="35" t="s">
         <v>80</v>
@@ -41750,7 +41795,7 @@
     </row>
     <row r="3683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3683" s="35" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B3683" s="35" t="s">
         <v>80</v>
@@ -41761,7 +41806,7 @@
     </row>
     <row r="3684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3684" s="35" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B3684" s="35" t="s">
         <v>80</v>
@@ -41772,7 +41817,7 @@
     </row>
     <row r="3685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3685" s="35" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B3685" s="35" t="s">
         <v>80</v>
@@ -41783,7 +41828,7 @@
     </row>
     <row r="3686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3686" s="35" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B3686" s="35" t="s">
         <v>80</v>
@@ -48328,7 +48373,7 @@
     </row>
     <row r="4281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4281" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4281" s="40" t="s">
         <v>90</v>
@@ -48339,7 +48384,7 @@
     </row>
     <row r="4282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4282" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4282" s="40" t="s">
         <v>90</v>
@@ -48350,7 +48395,7 @@
     </row>
     <row r="4283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4283" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4283" s="40" t="s">
         <v>90</v>
@@ -48361,7 +48406,7 @@
     </row>
     <row r="4284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4284" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4284" s="40" t="s">
         <v>90</v>
@@ -48372,7 +48417,7 @@
     </row>
     <row r="4285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4285" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4285" s="40" t="s">
         <v>90</v>
@@ -48383,7 +48428,7 @@
     </row>
     <row r="4286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4286" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4286" s="40" t="s">
         <v>90</v>
@@ -48394,7 +48439,7 @@
     </row>
     <row r="4287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4287" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4287" s="40" t="s">
         <v>90</v>
@@ -48405,7 +48450,7 @@
     </row>
     <row r="4288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4288" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4288" s="40" t="s">
         <v>90</v>
@@ -48416,7 +48461,7 @@
     </row>
     <row r="4289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4289" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4289" s="40" t="s">
         <v>90</v>
@@ -48427,7 +48472,7 @@
     </row>
     <row r="4290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4290" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4290" s="40" t="s">
         <v>90</v>
@@ -48438,7 +48483,7 @@
     </row>
     <row r="4291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4291" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4291" s="40" t="s">
         <v>90</v>
@@ -48449,7 +48494,7 @@
     </row>
     <row r="4292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4292" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4292" s="40" t="s">
         <v>90</v>
@@ -48460,7 +48505,7 @@
     </row>
     <row r="4293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4293" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4293" s="40" t="s">
         <v>90</v>
@@ -48471,7 +48516,7 @@
     </row>
     <row r="4294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4294" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4294" s="40" t="s">
         <v>90</v>
@@ -48482,7 +48527,7 @@
     </row>
     <row r="4295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4295" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4295" s="40" t="s">
         <v>90</v>
@@ -48493,7 +48538,7 @@
     </row>
     <row r="4296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4296" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4296" s="40" t="s">
         <v>90</v>
@@ -48504,7 +48549,7 @@
     </row>
     <row r="4297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4297" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4297" s="40" t="s">
         <v>90</v>
@@ -48515,7 +48560,7 @@
     </row>
     <row r="4298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4298" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4298" s="40" t="s">
         <v>90</v>
@@ -48526,7 +48571,7 @@
     </row>
     <row r="4299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4299" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4299" s="40" t="s">
         <v>90</v>
@@ -48537,7 +48582,7 @@
     </row>
     <row r="4300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4300" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4300" s="40" t="s">
         <v>90</v>
@@ -48548,7 +48593,7 @@
     </row>
     <row r="4301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4301" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4301" s="40" t="s">
         <v>90</v>
@@ -48559,7 +48604,7 @@
     </row>
     <row r="4302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4302" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4302" s="40" t="s">
         <v>90</v>
@@ -48570,7 +48615,7 @@
     </row>
     <row r="4303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4303" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4303" s="40" t="s">
         <v>90</v>
@@ -48581,7 +48626,7 @@
     </row>
     <row r="4304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4304" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4304" s="40" t="s">
         <v>90</v>
@@ -48592,7 +48637,7 @@
     </row>
     <row r="4305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4305" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4305" s="40" t="s">
         <v>90</v>
@@ -48603,7 +48648,7 @@
     </row>
     <row r="4306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4306" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4306" s="40" t="s">
         <v>90</v>
@@ -48614,7 +48659,7 @@
     </row>
     <row r="4307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4307" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4307" s="40" t="s">
         <v>90</v>
@@ -48625,7 +48670,7 @@
     </row>
     <row r="4308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4308" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4308" s="40" t="s">
         <v>90</v>
@@ -48636,7 +48681,7 @@
     </row>
     <row r="4309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4309" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4309" s="40" t="s">
         <v>90</v>
@@ -48647,7 +48692,7 @@
     </row>
     <row r="4310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4310" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4310" s="40" t="s">
         <v>90</v>
@@ -48658,7 +48703,7 @@
     </row>
     <row r="4311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4311" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4311" s="40" t="s">
         <v>90</v>
@@ -48669,7 +48714,7 @@
     </row>
     <row r="4312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4312" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4312" s="40" t="s">
         <v>90</v>
@@ -48680,7 +48725,7 @@
     </row>
     <row r="4313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4313" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4313" s="40" t="s">
         <v>90</v>
@@ -48691,7 +48736,7 @@
     </row>
     <row r="4314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4314" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4314" s="40" t="s">
         <v>90</v>
@@ -48702,7 +48747,7 @@
     </row>
     <row r="4315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4315" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4315" s="40" t="s">
         <v>90</v>
@@ -48713,7 +48758,7 @@
     </row>
     <row r="4316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4316" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4316" s="40" t="s">
         <v>90</v>
@@ -48724,7 +48769,7 @@
     </row>
     <row r="4317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4317" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4317" s="40" t="s">
         <v>90</v>
@@ -48735,7 +48780,7 @@
     </row>
     <row r="4318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4318" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4318" s="40" t="s">
         <v>90</v>
@@ -48746,7 +48791,7 @@
     </row>
     <row r="4319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4319" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4319" s="40" t="s">
         <v>90</v>
@@ -48757,7 +48802,7 @@
     </row>
     <row r="4320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4320" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4320" s="40" t="s">
         <v>90</v>
@@ -48768,7 +48813,7 @@
     </row>
     <row r="4321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4321" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4321" s="40" t="s">
         <v>90</v>
@@ -48779,7 +48824,7 @@
     </row>
     <row r="4322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4322" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4322" s="40" t="s">
         <v>90</v>
@@ -48790,7 +48835,7 @@
     </row>
     <row r="4323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4323" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4323" s="40" t="s">
         <v>90</v>
@@ -48801,7 +48846,7 @@
     </row>
     <row r="4324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4324" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4324" s="40" t="s">
         <v>90</v>
@@ -48812,7 +48857,7 @@
     </row>
     <row r="4325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4325" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4325" s="40" t="s">
         <v>90</v>
@@ -48823,7 +48868,7 @@
     </row>
     <row r="4326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4326" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4326" s="40" t="s">
         <v>90</v>
@@ -48834,7 +48879,7 @@
     </row>
     <row r="4327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4327" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4327" s="40" t="s">
         <v>90</v>
@@ -48845,7 +48890,7 @@
     </row>
     <row r="4328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4328" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4328" s="40" t="s">
         <v>90</v>
@@ -48856,7 +48901,7 @@
     </row>
     <row r="4329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4329" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4329" s="40" t="s">
         <v>90</v>
@@ -48867,7 +48912,7 @@
     </row>
     <row r="4330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4330" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4330" s="40" t="s">
         <v>90</v>
@@ -48878,7 +48923,7 @@
     </row>
     <row r="4331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4331" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4331" s="40" t="s">
         <v>90</v>
@@ -48889,7 +48934,7 @@
     </row>
     <row r="4332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4332" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4332" s="40" t="s">
         <v>90</v>
@@ -48900,7 +48945,7 @@
     </row>
     <row r="4333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4333" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4333" s="40" t="s">
         <v>90</v>
@@ -48911,7 +48956,7 @@
     </row>
     <row r="4334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4334" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4334" s="40" t="s">
         <v>90</v>
@@ -48922,7 +48967,7 @@
     </row>
     <row r="4335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4335" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4335" s="40" t="s">
         <v>90</v>
@@ -48933,7 +48978,7 @@
     </row>
     <row r="4336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4336" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4336" s="40" t="s">
         <v>90</v>
@@ -48944,7 +48989,7 @@
     </row>
     <row r="4337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4337" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4337" s="40" t="s">
         <v>90</v>
@@ -48955,7 +49000,7 @@
     </row>
     <row r="4338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4338" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4338" s="40" t="s">
         <v>90</v>
@@ -48966,7 +49011,7 @@
     </row>
     <row r="4339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4339" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4339" s="40" t="s">
         <v>90</v>
@@ -48977,7 +49022,7 @@
     </row>
     <row r="4340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4340" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4340" s="40" t="s">
         <v>90</v>
@@ -48988,7 +49033,7 @@
     </row>
     <row r="4341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4341" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4341" s="40" t="s">
         <v>90</v>
@@ -48999,7 +49044,7 @@
     </row>
     <row r="4342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4342" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4342" s="40" t="s">
         <v>90</v>
@@ -49010,7 +49055,7 @@
     </row>
     <row r="4343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4343" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4343" s="40" t="s">
         <v>90</v>
@@ -49021,7 +49066,7 @@
     </row>
     <row r="4344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4344" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4344" s="40" t="s">
         <v>90</v>
@@ -49032,7 +49077,7 @@
     </row>
     <row r="4345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4345" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4345" s="40" t="s">
         <v>90</v>
@@ -49043,7 +49088,7 @@
     </row>
     <row r="4346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4346" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4346" s="40" t="s">
         <v>90</v>
@@ -49054,7 +49099,7 @@
     </row>
     <row r="4347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4347" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4347" s="40" t="s">
         <v>90</v>
@@ -49065,7 +49110,7 @@
     </row>
     <row r="4348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4348" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4348" s="40" t="s">
         <v>90</v>
@@ -49076,7 +49121,7 @@
     </row>
     <row r="4349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4349" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4349" s="40" t="s">
         <v>90</v>
@@ -49087,7 +49132,7 @@
     </row>
     <row r="4350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4350" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4350" s="40" t="s">
         <v>90</v>
@@ -49098,7 +49143,7 @@
     </row>
     <row r="4351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4351" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4351" s="40" t="s">
         <v>90</v>
@@ -49109,7 +49154,7 @@
     </row>
     <row r="4352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4352" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4352" s="40" t="s">
         <v>90</v>
@@ -49120,7 +49165,7 @@
     </row>
     <row r="4353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4353" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4353" s="40" t="s">
         <v>90</v>
@@ -49131,7 +49176,7 @@
     </row>
     <row r="4354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4354" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4354" s="40" t="s">
         <v>90</v>
@@ -49142,7 +49187,7 @@
     </row>
     <row r="4355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4355" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4355" s="40" t="s">
         <v>90</v>
@@ -49153,7 +49198,7 @@
     </row>
     <row r="4356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4356" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4356" s="40" t="s">
         <v>90</v>
@@ -49164,7 +49209,7 @@
     </row>
     <row r="4357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4357" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4357" s="40" t="s">
         <v>90</v>
@@ -49175,7 +49220,7 @@
     </row>
     <row r="4358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4358" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4358" s="40" t="s">
         <v>90</v>
@@ -49186,7 +49231,7 @@
     </row>
     <row r="4359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4359" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4359" s="40" t="s">
         <v>90</v>
@@ -49197,7 +49242,7 @@
     </row>
     <row r="4360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4360" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4360" s="40" t="s">
         <v>90</v>
@@ -49208,7 +49253,7 @@
     </row>
     <row r="4361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4361" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4361" s="40" t="s">
         <v>90</v>
@@ -49219,7 +49264,7 @@
     </row>
     <row r="4362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4362" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4362" s="40" t="s">
         <v>90</v>
@@ -49230,7 +49275,7 @@
     </row>
     <row r="4363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4363" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4363" s="40" t="s">
         <v>90</v>
@@ -49241,7 +49286,7 @@
     </row>
     <row r="4364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4364" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4364" s="40" t="s">
         <v>90</v>
@@ -49252,7 +49297,7 @@
     </row>
     <row r="4365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4365" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4365" s="40" t="s">
         <v>90</v>
@@ -49263,7 +49308,7 @@
     </row>
     <row r="4366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4366" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4366" s="40" t="s">
         <v>90</v>
@@ -49274,7 +49319,7 @@
     </row>
     <row r="4367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4367" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4367" s="40" t="s">
         <v>90</v>
@@ -49285,7 +49330,7 @@
     </row>
     <row r="4368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4368" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4368" s="40" t="s">
         <v>90</v>
@@ -49296,7 +49341,7 @@
     </row>
     <row r="4369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4369" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4369" s="40" t="s">
         <v>90</v>
@@ -49307,7 +49352,7 @@
     </row>
     <row r="4370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4370" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4370" s="40" t="s">
         <v>90</v>
@@ -49318,7 +49363,7 @@
     </row>
     <row r="4371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4371" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4371" s="40" t="s">
         <v>90</v>
@@ -49329,7 +49374,7 @@
     </row>
     <row r="4372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4372" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4372" s="40" t="s">
         <v>90</v>
@@ -49340,7 +49385,7 @@
     </row>
     <row r="4373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4373" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4373" s="40" t="s">
         <v>90</v>
@@ -49351,7 +49396,7 @@
     </row>
     <row r="4374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4374" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4374" s="40" t="s">
         <v>90</v>
@@ -49362,7 +49407,7 @@
     </row>
     <row r="4375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4375" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4375" s="40" t="s">
         <v>90</v>
@@ -49373,7 +49418,7 @@
     </row>
     <row r="4376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4376" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4376" s="40" t="s">
         <v>90</v>
@@ -49384,7 +49429,7 @@
     </row>
     <row r="4377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4377" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4377" s="40" t="s">
         <v>90</v>
@@ -49395,7 +49440,7 @@
     </row>
     <row r="4378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4378" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4378" s="40" t="s">
         <v>90</v>
@@ -49406,7 +49451,7 @@
     </row>
     <row r="4379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4379" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4379" s="40" t="s">
         <v>90</v>
@@ -49417,7 +49462,7 @@
     </row>
     <row r="4380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4380" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4380" s="40" t="s">
         <v>90</v>
@@ -49428,7 +49473,7 @@
     </row>
     <row r="4381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4381" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4381" s="40" t="s">
         <v>90</v>
@@ -49439,7 +49484,7 @@
     </row>
     <row r="4382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4382" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4382" s="40" t="s">
         <v>90</v>
@@ -49450,7 +49495,7 @@
     </row>
     <row r="4383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4383" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4383" s="40" t="s">
         <v>90</v>
@@ -49461,7 +49506,7 @@
     </row>
     <row r="4384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4384" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4384" s="40" t="s">
         <v>90</v>
@@ -49472,7 +49517,7 @@
     </row>
     <row r="4385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4385" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4385" s="40" t="s">
         <v>90</v>
@@ -49483,7 +49528,7 @@
     </row>
     <row r="4386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4386" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4386" s="40" t="s">
         <v>90</v>
@@ -49494,7 +49539,7 @@
     </row>
     <row r="4387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4387" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4387" s="40" t="s">
         <v>90</v>
@@ -49505,7 +49550,7 @@
     </row>
     <row r="4388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4388" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4388" s="40" t="s">
         <v>90</v>
@@ -49516,7 +49561,7 @@
     </row>
     <row r="4389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4389" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4389" s="40" t="s">
         <v>90</v>
@@ -49527,7 +49572,7 @@
     </row>
     <row r="4390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4390" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4390" s="40" t="s">
         <v>90</v>
@@ -49538,7 +49583,7 @@
     </row>
     <row r="4391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4391" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4391" s="40" t="s">
         <v>90</v>
@@ -49549,7 +49594,7 @@
     </row>
     <row r="4392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4392" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4392" s="40" t="s">
         <v>90</v>
@@ -49560,7 +49605,7 @@
     </row>
     <row r="4393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4393" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4393" s="40" t="s">
         <v>90</v>
@@ -49571,7 +49616,7 @@
     </row>
     <row r="4394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4394" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4394" s="40" t="s">
         <v>90</v>
@@ -49582,7 +49627,7 @@
     </row>
     <row r="4395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4395" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4395" s="40" t="s">
         <v>90</v>
@@ -49593,7 +49638,7 @@
     </row>
     <row r="4396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4396" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4396" s="40" t="s">
         <v>90</v>
@@ -49604,7 +49649,7 @@
     </row>
     <row r="4397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4397" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4397" s="40" t="s">
         <v>90</v>
@@ -49615,7 +49660,7 @@
     </row>
     <row r="4398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4398" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4398" s="40" t="s">
         <v>90</v>
@@ -49626,7 +49671,7 @@
     </row>
     <row r="4399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4399" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4399" s="40" t="s">
         <v>90</v>
@@ -49637,7 +49682,7 @@
     </row>
     <row r="4400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4400" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4400" s="40" t="s">
         <v>90</v>
@@ -49648,7 +49693,7 @@
     </row>
     <row r="4401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4401" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4401" s="40" t="s">
         <v>90</v>
@@ -49659,7 +49704,7 @@
     </row>
     <row r="4402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4402" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4402" s="40" t="s">
         <v>90</v>
@@ -49670,7 +49715,7 @@
     </row>
     <row r="4403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4403" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4403" s="40" t="s">
         <v>90</v>
@@ -49681,7 +49726,7 @@
     </row>
     <row r="4404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4404" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4404" s="40" t="s">
         <v>90</v>
@@ -49692,7 +49737,7 @@
     </row>
     <row r="4405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4405" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4405" s="40" t="s">
         <v>90</v>
@@ -49703,7 +49748,7 @@
     </row>
     <row r="4406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4406" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4406" s="40" t="s">
         <v>90</v>
@@ -49714,7 +49759,7 @@
     </row>
     <row r="4407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4407" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4407" s="40" t="s">
         <v>90</v>
@@ -49725,7 +49770,7 @@
     </row>
     <row r="4408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4408" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4408" s="40" t="s">
         <v>90</v>
@@ -49736,7 +49781,7 @@
     </row>
     <row r="4409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4409" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4409" s="40" t="s">
         <v>90</v>
@@ -49747,7 +49792,7 @@
     </row>
     <row r="4410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4410" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4410" s="40" t="s">
         <v>90</v>
@@ -49758,7 +49803,7 @@
     </row>
     <row r="4411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4411" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4411" s="40" t="s">
         <v>90</v>
@@ -49769,7 +49814,7 @@
     </row>
     <row r="4412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4412" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4412" s="40" t="s">
         <v>90</v>
@@ -49780,7 +49825,7 @@
     </row>
     <row r="4413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4413" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4413" s="40" t="s">
         <v>90</v>
@@ -49791,7 +49836,7 @@
     </row>
     <row r="4414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4414" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4414" s="40" t="s">
         <v>90</v>
@@ -49802,7 +49847,7 @@
     </row>
     <row r="4415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4415" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4415" s="40" t="s">
         <v>90</v>
@@ -49813,7 +49858,7 @@
     </row>
     <row r="4416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4416" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4416" s="40" t="s">
         <v>90</v>
@@ -49824,7 +49869,7 @@
     </row>
     <row r="4417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4417" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4417" s="40" t="s">
         <v>90</v>
@@ -49835,7 +49880,7 @@
     </row>
     <row r="4418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4418" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4418" s="40" t="s">
         <v>90</v>
@@ -49846,7 +49891,7 @@
     </row>
     <row r="4419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4419" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4419" s="40" t="s">
         <v>90</v>
@@ -49857,7 +49902,7 @@
     </row>
     <row r="4420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4420" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4420" s="40" t="s">
         <v>90</v>
@@ -49868,7 +49913,7 @@
     </row>
     <row r="4421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4421" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4421" s="40" t="s">
         <v>90</v>
@@ -49879,7 +49924,7 @@
     </row>
     <row r="4422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4422" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4422" s="40" t="s">
         <v>90</v>
@@ -49890,7 +49935,7 @@
     </row>
     <row r="4423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4423" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4423" s="40" t="s">
         <v>90</v>
@@ -49901,7 +49946,7 @@
     </row>
     <row r="4424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4424" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4424" s="40" t="s">
         <v>90</v>
@@ -49912,7 +49957,7 @@
     </row>
     <row r="4425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4425" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4425" s="40" t="s">
         <v>90</v>
@@ -49923,7 +49968,7 @@
     </row>
     <row r="4426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4426" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4426" s="40" t="s">
         <v>90</v>
@@ -49934,7 +49979,7 @@
     </row>
     <row r="4427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4427" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4427" s="40" t="s">
         <v>90</v>
@@ -49945,7 +49990,7 @@
     </row>
     <row r="4428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4428" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4428" s="40" t="s">
         <v>90</v>
@@ -49956,7 +50001,7 @@
     </row>
     <row r="4429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4429" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4429" s="40" t="s">
         <v>90</v>
@@ -49967,7 +50012,7 @@
     </row>
     <row r="4430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4430" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4430" s="40" t="s">
         <v>90</v>
@@ -49978,7 +50023,7 @@
     </row>
     <row r="4431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4431" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4431" s="40" t="s">
         <v>90</v>
@@ -49989,7 +50034,7 @@
     </row>
     <row r="4432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4432" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4432" s="40" t="s">
         <v>90</v>
@@ -50000,7 +50045,7 @@
     </row>
     <row r="4433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4433" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4433" s="40" t="s">
         <v>90</v>
@@ -50011,7 +50056,7 @@
     </row>
     <row r="4434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4434" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4434" s="40" t="s">
         <v>90</v>
@@ -50022,7 +50067,7 @@
     </row>
     <row r="4435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4435" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4435" s="40" t="s">
         <v>90</v>
@@ -50033,7 +50078,7 @@
     </row>
     <row r="4436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4436" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4436" s="40" t="s">
         <v>90</v>
@@ -50044,7 +50089,7 @@
     </row>
     <row r="4437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4437" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4437" s="40" t="s">
         <v>90</v>
@@ -50055,7 +50100,7 @@
     </row>
     <row r="4438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4438" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4438" s="40" t="s">
         <v>90</v>
@@ -50066,7 +50111,7 @@
     </row>
     <row r="4439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4439" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4439" s="40" t="s">
         <v>90</v>
@@ -50077,7 +50122,7 @@
     </row>
     <row r="4440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4440" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4440" s="40" t="s">
         <v>90</v>
@@ -50088,7 +50133,7 @@
     </row>
     <row r="4441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4441" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4441" s="40" t="s">
         <v>90</v>
@@ -50099,7 +50144,7 @@
     </row>
     <row r="4442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4442" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4442" s="40" t="s">
         <v>90</v>
@@ -50110,7 +50155,7 @@
     </row>
     <row r="4443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4443" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4443" s="40" t="s">
         <v>90</v>
@@ -50121,7 +50166,7 @@
     </row>
     <row r="4444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4444" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4444" s="40" t="s">
         <v>90</v>
@@ -50132,7 +50177,7 @@
     </row>
     <row r="4445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4445" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4445" s="40" t="s">
         <v>90</v>
@@ -50143,7 +50188,7 @@
     </row>
     <row r="4446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4446" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4446" s="40" t="s">
         <v>90</v>
@@ -50154,7 +50199,7 @@
     </row>
     <row r="4447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4447" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4447" s="40" t="s">
         <v>90</v>
@@ -50165,7 +50210,7 @@
     </row>
     <row r="4448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4448" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4448" s="40" t="s">
         <v>90</v>
@@ -50176,7 +50221,7 @@
     </row>
     <row r="4449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4449" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4449" s="40" t="s">
         <v>90</v>
@@ -50187,7 +50232,7 @@
     </row>
     <row r="4450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4450" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4450" s="40" t="s">
         <v>90</v>
@@ -50198,7 +50243,7 @@
     </row>
     <row r="4451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4451" s="40" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B4451" s="40" t="s">
         <v>90</v>
@@ -50209,7 +50254,7 @@
     </row>
     <row r="4452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4452" s="41" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B4452" s="41" t="s">
         <v>92</v>
@@ -50220,7 +50265,7 @@
     </row>
     <row r="4453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4453" s="41" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B4453" s="41" t="s">
         <v>92</v>
@@ -50231,7 +50276,7 @@
     </row>
     <row r="4454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4454" s="41" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B4454" s="41" t="s">
         <v>92</v>
@@ -50242,7 +50287,7 @@
     </row>
     <row r="4455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4455" s="41" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B4455" s="41" t="s">
         <v>92</v>
@@ -50253,7 +50298,7 @@
     </row>
     <row r="4456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4456" s="41" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B4456" s="41" t="s">
         <v>92</v>
@@ -50264,7 +50309,7 @@
     </row>
     <row r="4457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4457" s="41" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B4457" s="41" t="s">
         <v>92</v>
@@ -50275,7 +50320,7 @@
     </row>
     <row r="4458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4458" s="41" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B4458" s="41" t="s">
         <v>92</v>
